--- a/dev_docs/pvt_macro1_supply_stats_good_results.xlsx
+++ b/dev_docs/pvt_macro1_supply_stats_good_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>time</t>
   </si>
@@ -81,6 +81,39 @@
   </si>
   <si>
     <t>supply</t>
+  </si>
+  <si>
+    <t>Halluc phoenix dies</t>
+  </si>
+  <si>
+    <t>Phoenix (2 supply) made that wasn't considered 'halluc'</t>
+  </si>
+  <si>
+    <t>19/23</t>
+  </si>
+  <si>
+    <t>14/15</t>
+  </si>
+  <si>
+    <t>15/15</t>
+  </si>
+  <si>
+    <t>17/23</t>
+  </si>
+  <si>
+    <t>18/23</t>
+  </si>
+  <si>
+    <t>16/23</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>Probe Build time</t>
+  </si>
+  <si>
+    <t>12s</t>
   </si>
 </sst>
 </file>
@@ -411,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V172"/>
+  <dimension ref="A1:AA176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA177" sqref="AA177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +455,7 @@
     <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -441,13 +474,14 @@
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -484,6 +518,9 @@
       <c r="N2" t="s">
         <v>8</v>
       </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
       <c r="P2" t="s">
         <v>6</v>
       </c>
@@ -502,8 +539,17 @@
       <c r="U2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -542,6 +588,9 @@
       <c r="N3">
         <v>0</v>
       </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
       <c r="P3">
         <v>0</v>
       </c>
@@ -561,8 +610,21 @@
       <c r="V3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3">
+        <v>-12</v>
+      </c>
+      <c r="X3">
+        <v>12</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="str">
+        <f>IF(X3&gt;=Y3, "BLOCKED", "-")</f>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -601,6 +663,9 @@
       <c r="N4">
         <v>15</v>
       </c>
+      <c r="O4">
+        <v>289</v>
+      </c>
       <c r="P4">
         <v>13</v>
       </c>
@@ -614,8 +679,27 @@
         <f t="shared" ref="S4:S67" si="0">IF(Q4&gt;=R4, "BLOCKED", "")</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>21</v>
+      </c>
+      <c r="V4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>12</v>
+      </c>
+      <c r="Y4">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" ref="Z4:Z67" si="1">IF(X4&gt;=Y4, "BLOCKED", "-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25</v>
       </c>
@@ -623,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C68" si="1">C4+B5</f>
+        <f t="shared" ref="C5:C68" si="2">C4+B5</f>
         <v>14</v>
       </c>
       <c r="D5">
@@ -633,7 +717,7 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F31" si="2">F4+E5</f>
+        <f t="shared" ref="F5:F31" si="3">F4+E5</f>
         <v>31</v>
       </c>
       <c r="H5">
@@ -654,6 +738,9 @@
       <c r="N5">
         <v>15</v>
       </c>
+      <c r="O5">
+        <v>560</v>
+      </c>
       <c r="P5">
         <v>25</v>
       </c>
@@ -667,8 +754,27 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>28</v>
+      </c>
+      <c r="V5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>13</v>
+      </c>
+      <c r="Y5">
+        <v>15</v>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>37</v>
       </c>
@@ -676,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D6">
@@ -686,7 +792,7 @@
         <v>15</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="H6">
@@ -706,6 +812,9 @@
       </c>
       <c r="N6">
         <v>15</v>
+      </c>
+      <c r="O6">
+        <v>844</v>
       </c>
       <c r="P6">
         <v>37</v>
@@ -724,8 +833,21 @@
         <f>P7-P6</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6">
+        <v>13</v>
+      </c>
+      <c r="X6">
+        <v>14</v>
+      </c>
+      <c r="Y6">
+        <v>15</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>51</v>
       </c>
@@ -733,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D7">
@@ -743,7 +865,7 @@
         <v>8</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="H7">
@@ -777,8 +899,31 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>49</v>
+      </c>
+      <c r="V7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7">
+        <v>26</v>
+      </c>
+      <c r="X7">
+        <v>15</v>
+      </c>
+      <c r="Y7">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="1"/>
+        <v>BLOCKED</v>
+      </c>
+      <c r="AA7">
+        <f>W9-W7</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>59</v>
       </c>
@@ -786,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D8">
@@ -796,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="H8">
@@ -817,6 +962,9 @@
       <c r="N8">
         <v>23</v>
       </c>
+      <c r="O8">
+        <v>1156</v>
+      </c>
       <c r="P8">
         <v>51</v>
       </c>
@@ -830,8 +978,27 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>56</v>
+      </c>
+      <c r="V8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8">
+        <v>40</v>
+      </c>
+      <c r="X8">
+        <v>16</v>
+      </c>
+      <c r="Y8">
+        <v>15</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="1"/>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>67</v>
       </c>
@@ -839,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="D9">
@@ -849,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="H9">
@@ -870,6 +1037,9 @@
       <c r="N9">
         <v>23</v>
       </c>
+      <c r="O9">
+        <v>1337</v>
+      </c>
       <c r="P9">
         <v>59</v>
       </c>
@@ -883,8 +1053,27 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>63</v>
+      </c>
+      <c r="V9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W9">
+        <v>41</v>
+      </c>
+      <c r="X9">
+        <v>16</v>
+      </c>
+      <c r="Y9">
+        <v>23</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>79</v>
       </c>
@@ -892,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D10">
@@ -902,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="H10">
@@ -923,6 +1112,9 @@
       <c r="N10">
         <v>23</v>
       </c>
+      <c r="O10">
+        <v>1518</v>
+      </c>
       <c r="P10">
         <v>67</v>
       </c>
@@ -936,8 +1128,27 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>70</v>
+      </c>
+      <c r="V10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10">
+        <v>48</v>
+      </c>
+      <c r="X10">
+        <v>17</v>
+      </c>
+      <c r="Y10">
+        <v>23</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>91</v>
       </c>
@@ -945,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D11">
@@ -955,7 +1166,7 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="H11">
@@ -976,6 +1187,9 @@
       <c r="N11">
         <v>23</v>
       </c>
+      <c r="O11">
+        <v>1774</v>
+      </c>
       <c r="P11">
         <v>79</v>
       </c>
@@ -989,8 +1203,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>56</v>
+      </c>
+      <c r="X11">
+        <v>18</v>
+      </c>
+      <c r="Y11">
+        <v>23</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>111</v>
       </c>
@@ -998,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D12">
@@ -1008,7 +1235,7 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="H12">
@@ -1029,6 +1256,9 @@
       <c r="N12">
         <v>23</v>
       </c>
+      <c r="O12">
+        <v>2045</v>
+      </c>
       <c r="P12">
         <v>91</v>
       </c>
@@ -1042,8 +1272,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12">
+        <v>67</v>
+      </c>
+      <c r="X12">
+        <v>19</v>
+      </c>
+      <c r="Y12">
+        <v>23</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>124</v>
       </c>
@@ -1051,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D13">
@@ -1061,7 +1304,7 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="H13">
@@ -1095,8 +1338,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <v>79</v>
+      </c>
+      <c r="X13">
+        <v>20</v>
+      </c>
+      <c r="Y13">
+        <v>23</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>140</v>
       </c>
@@ -1104,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="D14">
@@ -1114,7 +1370,7 @@
         <v>8</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="H14">
@@ -1148,8 +1404,24 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14">
+        <v>99</v>
+      </c>
+      <c r="X14">
+        <v>21</v>
+      </c>
+      <c r="Y14">
+        <v>23</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>155</v>
       </c>
@@ -1157,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="D15">
@@ -1167,7 +1439,7 @@
         <v>15</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="H15">
@@ -1201,8 +1473,24 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U15" t="s">
+        <v>29</v>
+      </c>
+      <c r="W15">
+        <v>112</v>
+      </c>
+      <c r="X15">
+        <v>22</v>
+      </c>
+      <c r="Y15">
+        <v>23</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>161</v>
       </c>
@@ -1220,7 +1508,7 @@
         <v>8</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133</v>
       </c>
       <c r="H16">
@@ -1254,8 +1542,25 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <v>128</v>
+      </c>
+      <c r="X16">
+        <v>23</v>
+      </c>
+      <c r="Y16">
+        <v>23</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="1"/>
+        <v>BLOCKED</v>
+      </c>
+      <c r="AA16">
+        <f>W18-W16</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>169</v>
       </c>
@@ -1263,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="D17">
@@ -1273,7 +1578,7 @@
         <v>8</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="H17">
@@ -1307,8 +1612,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <v>131</v>
+      </c>
+      <c r="X17">
+        <v>25</v>
+      </c>
+      <c r="Y17">
+        <v>23</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="1"/>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>181</v>
       </c>
@@ -1316,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="D18">
@@ -1326,7 +1644,7 @@
         <v>8</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>149</v>
       </c>
       <c r="H18">
@@ -1360,8 +1678,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <v>140</v>
+      </c>
+      <c r="X18">
+        <v>25</v>
+      </c>
+      <c r="Y18">
+        <v>31</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>189</v>
       </c>
@@ -1369,7 +1700,7 @@
         <v>-1</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="D19">
@@ -1379,7 +1710,7 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>157</v>
       </c>
       <c r="H19">
@@ -1413,8 +1744,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <v>143</v>
+      </c>
+      <c r="X19">
+        <v>26</v>
+      </c>
+      <c r="Y19">
+        <v>31</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>192</v>
       </c>
@@ -1422,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="D20">
@@ -1432,7 +1776,7 @@
         <v>8</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
       <c r="H20">
@@ -1466,8 +1810,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <v>157</v>
+      </c>
+      <c r="X20">
+        <v>27</v>
+      </c>
+      <c r="Y20">
+        <v>31</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>193</v>
       </c>
@@ -1475,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="D21">
@@ -1485,7 +1842,7 @@
         <v>8</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>173</v>
       </c>
       <c r="H21">
@@ -1519,8 +1876,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <v>163</v>
+      </c>
+      <c r="X21">
+        <v>27</v>
+      </c>
+      <c r="Y21">
+        <v>46</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>199</v>
       </c>
@@ -1528,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="D22">
@@ -1538,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>181</v>
       </c>
       <c r="H22">
@@ -1572,8 +1942,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <v>169</v>
+      </c>
+      <c r="X22">
+        <v>28</v>
+      </c>
+      <c r="Y22">
+        <v>46</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>200</v>
       </c>
@@ -1581,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="D23">
@@ -1591,7 +1974,7 @@
         <v>8</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>189</v>
       </c>
       <c r="H23">
@@ -1625,8 +2008,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <v>174</v>
+      </c>
+      <c r="X23">
+        <v>30</v>
+      </c>
+      <c r="Y23">
+        <v>46</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>201</v>
       </c>
@@ -1634,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="D24">
@@ -1644,7 +2040,7 @@
         <v>15</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="H24">
@@ -1678,8 +2074,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <v>180</v>
+      </c>
+      <c r="X24">
+        <v>31</v>
+      </c>
+      <c r="Y24">
+        <v>46</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>209</v>
       </c>
@@ -1687,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="D25">
@@ -1697,7 +2106,7 @@
         <v>-8</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="H25">
@@ -1731,8 +2140,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <v>181</v>
+      </c>
+      <c r="X25">
+        <v>32</v>
+      </c>
+      <c r="Y25">
+        <v>46</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>234</v>
       </c>
@@ -1740,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="D26">
@@ -1750,7 +2172,7 @@
         <v>-8</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>188</v>
       </c>
       <c r="H26">
@@ -1784,8 +2206,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W26">
+        <v>188</v>
+      </c>
+      <c r="X26">
+        <v>33</v>
+      </c>
+      <c r="Y26">
+        <v>46</v>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>244</v>
       </c>
@@ -1793,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="D27">
@@ -1803,7 +2238,7 @@
         <v>8</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="H27">
@@ -1837,8 +2272,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <v>189</v>
+      </c>
+      <c r="X27">
+        <v>34</v>
+      </c>
+      <c r="Y27">
+        <v>46</v>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>245</v>
       </c>
@@ -1846,7 +2294,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="D28">
@@ -1856,7 +2304,7 @@
         <v>8</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="H28">
@@ -1890,8 +2338,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <v>190</v>
+      </c>
+      <c r="X28">
+        <v>33</v>
+      </c>
+      <c r="Y28">
+        <v>46</v>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>257</v>
       </c>
@@ -1899,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="D29">
@@ -1909,7 +2370,7 @@
         <v>8</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="H29">
@@ -1943,8 +2404,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <v>197</v>
+      </c>
+      <c r="X29">
+        <v>35</v>
+      </c>
+      <c r="Y29">
+        <v>46</v>
+      </c>
+      <c r="Z29" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>265</v>
       </c>
@@ -1952,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="D30">
@@ -1962,7 +2436,7 @@
         <v>15</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="H30">
@@ -1996,8 +2470,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <v>205</v>
+      </c>
+      <c r="X30">
+        <v>37</v>
+      </c>
+      <c r="Y30">
+        <v>46</v>
+      </c>
+      <c r="Z30" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>278</v>
       </c>
@@ -2005,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="D31">
@@ -2015,7 +2502,7 @@
         <v>8</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="H31">
@@ -2049,8 +2536,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <v>206</v>
+      </c>
+      <c r="X31">
+        <v>41</v>
+      </c>
+      <c r="Y31">
+        <v>46</v>
+      </c>
+      <c r="Z31" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>286</v>
       </c>
@@ -2058,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="H32">
@@ -2096,8 +2596,21 @@
         <f>P33-P32</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <v>232</v>
+      </c>
+      <c r="X32">
+        <v>42</v>
+      </c>
+      <c r="Y32">
+        <v>46</v>
+      </c>
+      <c r="Z32" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>294</v>
       </c>
@@ -2105,7 +2618,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="H33">
@@ -2139,8 +2652,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <v>245</v>
+      </c>
+      <c r="X33">
+        <v>44</v>
+      </c>
+      <c r="Y33">
+        <v>46</v>
+      </c>
+      <c r="Z33" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>302</v>
       </c>
@@ -2148,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="H34">
@@ -2182,8 +2708,25 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <v>265</v>
+      </c>
+      <c r="X34">
+        <v>46</v>
+      </c>
+      <c r="Y34">
+        <v>46</v>
+      </c>
+      <c r="Z34" t="str">
+        <f t="shared" si="1"/>
+        <v>BLOCKED</v>
+      </c>
+      <c r="AA34">
+        <f>W36-W34</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>303</v>
       </c>
@@ -2191,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="H35">
@@ -2225,8 +2768,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <v>266</v>
+      </c>
+      <c r="X35">
+        <v>48</v>
+      </c>
+      <c r="Y35">
+        <v>46</v>
+      </c>
+      <c r="Z35" t="str">
+        <f t="shared" si="1"/>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>311</v>
       </c>
@@ -2234,7 +2790,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="H36">
@@ -2268,8 +2824,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <v>269</v>
+      </c>
+      <c r="X36">
+        <v>48</v>
+      </c>
+      <c r="Y36">
+        <v>54</v>
+      </c>
+      <c r="Z36" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>319</v>
       </c>
@@ -2277,7 +2846,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="H37">
@@ -2311,8 +2880,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <v>270</v>
+      </c>
+      <c r="X37">
+        <v>48</v>
+      </c>
+      <c r="Y37">
+        <v>62</v>
+      </c>
+      <c r="Z37" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>326</v>
       </c>
@@ -2320,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="H38">
@@ -2354,8 +2936,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <v>274</v>
+      </c>
+      <c r="X38">
+        <v>50</v>
+      </c>
+      <c r="Y38">
+        <v>62</v>
+      </c>
+      <c r="Z38" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>333</v>
       </c>
@@ -2363,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="H39">
@@ -2397,8 +2992,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <v>283</v>
+      </c>
+      <c r="X39">
+        <v>52</v>
+      </c>
+      <c r="Y39">
+        <v>62</v>
+      </c>
+      <c r="Z39" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>335</v>
       </c>
@@ -2406,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="H40">
@@ -2440,8 +3048,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <v>291</v>
+      </c>
+      <c r="X40">
+        <v>54</v>
+      </c>
+      <c r="Y40">
+        <v>62</v>
+      </c>
+      <c r="Z40" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>341</v>
       </c>
@@ -2449,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="H41">
@@ -2483,8 +3104,24 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U41" t="s">
+        <v>20</v>
+      </c>
+      <c r="W41">
+        <v>293</v>
+      </c>
+      <c r="X41">
+        <v>60</v>
+      </c>
+      <c r="Y41">
+        <v>62</v>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>346</v>
       </c>
@@ -2492,7 +3129,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="H42">
@@ -2526,8 +3163,25 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <v>295</v>
+      </c>
+      <c r="X42">
+        <v>62</v>
+      </c>
+      <c r="Y42">
+        <v>62</v>
+      </c>
+      <c r="Z42" t="str">
+        <f t="shared" si="1"/>
+        <v>BLOCKED</v>
+      </c>
+      <c r="AA42">
+        <f>W45-W42</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>347</v>
       </c>
@@ -2535,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="H43">
@@ -2569,8 +3223,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <v>299</v>
+      </c>
+      <c r="X43">
+        <v>64</v>
+      </c>
+      <c r="Y43">
+        <v>62</v>
+      </c>
+      <c r="Z43" t="str">
+        <f t="shared" si="1"/>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>349</v>
       </c>
@@ -2578,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="H44">
@@ -2612,8 +3279,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <v>322</v>
+      </c>
+      <c r="X44">
+        <v>65</v>
+      </c>
+      <c r="Y44">
+        <v>62</v>
+      </c>
+      <c r="Z44" t="str">
+        <f t="shared" si="1"/>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>351</v>
       </c>
@@ -2621,7 +3301,7 @@
         <v>-2</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="H45">
@@ -2655,8 +3335,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <v>323</v>
+      </c>
+      <c r="X45">
+        <v>66</v>
+      </c>
+      <c r="Y45">
+        <v>70</v>
+      </c>
+      <c r="Z45" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>358</v>
       </c>
@@ -2664,7 +3357,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="H46">
@@ -2698,8 +3391,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <v>327</v>
+      </c>
+      <c r="X46">
+        <v>68</v>
+      </c>
+      <c r="Y46">
+        <v>70</v>
+      </c>
+      <c r="Z46" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>381</v>
       </c>
@@ -2707,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="H47">
@@ -2741,8 +3447,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W47">
+        <v>330</v>
+      </c>
+      <c r="X47">
+        <v>69</v>
+      </c>
+      <c r="Y47">
+        <v>70</v>
+      </c>
+      <c r="Z47" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>383</v>
       </c>
@@ -2750,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="H48">
@@ -2784,8 +3503,25 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W48">
+        <v>335</v>
+      </c>
+      <c r="X48">
+        <v>70</v>
+      </c>
+      <c r="Y48">
+        <v>70</v>
+      </c>
+      <c r="Z48" t="str">
+        <f t="shared" si="1"/>
+        <v>BLOCKED</v>
+      </c>
+      <c r="AA48">
+        <f>W49-W48</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>394</v>
       </c>
@@ -2793,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="H49">
@@ -2827,8 +3563,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W49">
+        <v>336</v>
+      </c>
+      <c r="X49">
+        <v>70</v>
+      </c>
+      <c r="Y49">
+        <v>78</v>
+      </c>
+      <c r="Z49" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>400</v>
       </c>
@@ -2836,7 +3585,7 @@
         <v>-1</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="H50">
@@ -2870,8 +3619,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W50">
+        <v>338</v>
+      </c>
+      <c r="X50">
+        <v>71</v>
+      </c>
+      <c r="Y50">
+        <v>78</v>
+      </c>
+      <c r="Z50" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>402</v>
       </c>
@@ -2879,7 +3641,7 @@
         <v>-1</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="H51">
@@ -2913,8 +3675,24 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U51" t="s">
+        <v>19</v>
+      </c>
+      <c r="W51">
+        <v>352</v>
+      </c>
+      <c r="X51">
+        <v>69</v>
+      </c>
+      <c r="Y51">
+        <v>78</v>
+      </c>
+      <c r="Z51" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>409</v>
       </c>
@@ -2922,7 +3700,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="H52">
@@ -2956,8 +3734,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W52">
+        <v>356</v>
+      </c>
+      <c r="X52">
+        <v>75</v>
+      </c>
+      <c r="Y52">
+        <v>78</v>
+      </c>
+      <c r="Z52" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>410</v>
       </c>
@@ -2965,7 +3756,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="H53">
@@ -2999,8 +3790,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <v>358</v>
+      </c>
+      <c r="X53">
+        <v>77</v>
+      </c>
+      <c r="Y53">
+        <v>78</v>
+      </c>
+      <c r="Z53" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>415</v>
       </c>
@@ -3008,7 +3812,7 @@
         <v>-1</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="H54">
@@ -3042,8 +3846,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <v>365</v>
+      </c>
+      <c r="X54">
+        <v>77</v>
+      </c>
+      <c r="Y54">
+        <v>86</v>
+      </c>
+      <c r="Z54" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>421</v>
       </c>
@@ -3051,7 +3868,7 @@
         <v>-1</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="H55">
@@ -3085,8 +3902,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <v>369</v>
+      </c>
+      <c r="X55">
+        <v>78</v>
+      </c>
+      <c r="Y55">
+        <v>86</v>
+      </c>
+      <c r="Z55" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>424</v>
       </c>
@@ -3094,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="H56">
@@ -3128,8 +3958,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <v>382</v>
+      </c>
+      <c r="X56">
+        <v>80</v>
+      </c>
+      <c r="Y56">
+        <v>86</v>
+      </c>
+      <c r="Z56" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>426</v>
       </c>
@@ -3137,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="H57">
@@ -3171,8 +4014,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W57">
+        <v>383</v>
+      </c>
+      <c r="X57">
+        <v>82</v>
+      </c>
+      <c r="Y57">
+        <v>94</v>
+      </c>
+      <c r="Z57" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>438</v>
       </c>
@@ -3180,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="H58">
@@ -3214,8 +4070,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W58">
+        <v>397</v>
+      </c>
+      <c r="X58">
+        <v>83</v>
+      </c>
+      <c r="Y58">
+        <v>94</v>
+      </c>
+      <c r="Z58" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>440</v>
       </c>
@@ -3223,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="H59">
@@ -3257,8 +4126,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W59">
+        <v>398</v>
+      </c>
+      <c r="X59">
+        <v>84</v>
+      </c>
+      <c r="Y59">
+        <v>94</v>
+      </c>
+      <c r="Z59" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>451</v>
       </c>
@@ -3266,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="H60">
@@ -3300,8 +4182,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W60">
+        <v>400</v>
+      </c>
+      <c r="X60">
+        <v>83</v>
+      </c>
+      <c r="Y60">
+        <v>94</v>
+      </c>
+      <c r="Z60" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>465</v>
       </c>
@@ -3309,7 +4204,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="H61">
@@ -3343,8 +4238,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W61">
+        <v>402</v>
+      </c>
+      <c r="X61">
+        <v>82</v>
+      </c>
+      <c r="Y61">
+        <v>94</v>
+      </c>
+      <c r="Z61" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>466</v>
       </c>
@@ -3352,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="H62">
@@ -3386,8 +4294,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W62">
+        <v>403</v>
+      </c>
+      <c r="X62">
+        <v>83</v>
+      </c>
+      <c r="Y62">
+        <v>94</v>
+      </c>
+      <c r="Z62" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>471</v>
       </c>
@@ -3395,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="H63">
@@ -3429,8 +4350,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W63">
+        <v>407</v>
+      </c>
+      <c r="X63">
+        <v>83</v>
+      </c>
+      <c r="Y63">
+        <v>102</v>
+      </c>
+      <c r="Z63" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>477</v>
       </c>
@@ -3438,7 +4372,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="H64">
@@ -3472,8 +4406,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W64">
+        <v>408</v>
+      </c>
+      <c r="X64">
+        <v>83</v>
+      </c>
+      <c r="Y64">
+        <v>110</v>
+      </c>
+      <c r="Z64" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>478</v>
       </c>
@@ -3481,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="H65">
@@ -3515,8 +4462,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W65">
+        <v>414</v>
+      </c>
+      <c r="X65">
+        <v>84</v>
+      </c>
+      <c r="Y65">
+        <v>110</v>
+      </c>
+      <c r="Z65" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>489</v>
       </c>
@@ -3524,7 +4484,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="H66">
@@ -3558,8 +4518,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W66">
+        <v>415</v>
+      </c>
+      <c r="X66">
+        <v>84</v>
+      </c>
+      <c r="Y66">
+        <v>110</v>
+      </c>
+      <c r="Z66" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>493</v>
       </c>
@@ -3567,7 +4540,7 @@
         <v>10</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="H67">
@@ -3601,8 +4574,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W67">
+        <v>416</v>
+      </c>
+      <c r="X67">
+        <v>84</v>
+      </c>
+      <c r="Y67">
+        <v>125</v>
+      </c>
+      <c r="Z67" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>523</v>
       </c>
@@ -3610,7 +4596,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="H68">
@@ -3641,11 +4627,24 @@
         <v>125</v>
       </c>
       <c r="S68" t="str">
-        <f t="shared" ref="S68:S131" si="3">IF(Q68&gt;=R68, "BLOCKED", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" ref="S68:S131" si="4">IF(Q68&gt;=R68, "BLOCKED", "")</f>
+        <v/>
+      </c>
+      <c r="W68">
+        <v>422</v>
+      </c>
+      <c r="X68">
+        <v>83</v>
+      </c>
+      <c r="Y68">
+        <v>125</v>
+      </c>
+      <c r="Z68" t="str">
+        <f t="shared" ref="Z68:Z131" si="5">IF(X68&gt;=Y68, "BLOCKED", "-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>539</v>
       </c>
@@ -3653,7 +4652,7 @@
         <v>-1</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" ref="C69:C132" si="4">C68+B69</f>
+        <f t="shared" ref="C69:C132" si="6">C68+B69</f>
         <v>109</v>
       </c>
       <c r="H69">
@@ -3684,11 +4683,24 @@
         <v>125</v>
       </c>
       <c r="S69" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W69">
+        <v>427</v>
+      </c>
+      <c r="X69">
+        <v>84</v>
+      </c>
+      <c r="Y69">
+        <v>125</v>
+      </c>
+      <c r="Z69" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>546</v>
       </c>
@@ -3696,7 +4708,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>112</v>
       </c>
       <c r="H70">
@@ -3727,11 +4739,24 @@
         <v>125</v>
       </c>
       <c r="S70" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W70">
+        <v>428</v>
+      </c>
+      <c r="X70">
+        <v>86</v>
+      </c>
+      <c r="Y70">
+        <v>125</v>
+      </c>
+      <c r="Z70" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>555</v>
       </c>
@@ -3739,7 +4764,7 @@
         <v>6</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="H71">
@@ -3770,11 +4795,24 @@
         <v>133</v>
       </c>
       <c r="S71" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W71">
+        <v>439</v>
+      </c>
+      <c r="X71">
+        <v>87</v>
+      </c>
+      <c r="Y71">
+        <v>125</v>
+      </c>
+      <c r="Z71" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>558</v>
       </c>
@@ -3782,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>119</v>
       </c>
       <c r="H72">
@@ -3813,11 +4851,24 @@
         <v>133</v>
       </c>
       <c r="S72" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W72">
+        <v>451</v>
+      </c>
+      <c r="X72">
+        <v>88</v>
+      </c>
+      <c r="Y72">
+        <v>125</v>
+      </c>
+      <c r="Z72" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>562</v>
       </c>
@@ -3825,7 +4876,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="H73">
@@ -3856,11 +4907,24 @@
         <v>133</v>
       </c>
       <c r="S73" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W73">
+        <v>453</v>
+      </c>
+      <c r="X73">
+        <v>90</v>
+      </c>
+      <c r="Y73">
+        <v>125</v>
+      </c>
+      <c r="Z73" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>563</v>
       </c>
@@ -3868,7 +4932,7 @@
         <v>8</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>129</v>
       </c>
       <c r="H74">
@@ -3899,11 +4963,24 @@
         <v>133</v>
       </c>
       <c r="S74" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W74">
+        <v>454</v>
+      </c>
+      <c r="X74">
+        <v>91</v>
+      </c>
+      <c r="Y74">
+        <v>125</v>
+      </c>
+      <c r="Z74" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>571</v>
       </c>
@@ -3911,7 +4988,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>132</v>
       </c>
       <c r="H75">
@@ -3942,11 +5019,24 @@
         <v>133</v>
       </c>
       <c r="S75" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W75">
+        <v>461</v>
+      </c>
+      <c r="X75">
+        <v>91</v>
+      </c>
+      <c r="Y75">
+        <v>133</v>
+      </c>
+      <c r="Z75" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>587</v>
       </c>
@@ -3954,7 +5044,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>134</v>
       </c>
       <c r="H76">
@@ -3985,11 +5075,24 @@
         <v>133</v>
       </c>
       <c r="S76" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W76">
+        <v>465</v>
+      </c>
+      <c r="X76">
+        <v>92</v>
+      </c>
+      <c r="Y76">
+        <v>133</v>
+      </c>
+      <c r="Z76" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>606</v>
       </c>
@@ -3997,7 +5100,7 @@
         <v>-1</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>133</v>
       </c>
       <c r="H77">
@@ -4028,11 +5131,24 @@
         <v>133</v>
       </c>
       <c r="S77" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W77">
+        <v>466</v>
+      </c>
+      <c r="X77">
+        <v>94</v>
+      </c>
+      <c r="Y77">
+        <v>133</v>
+      </c>
+      <c r="Z77" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>608</v>
       </c>
@@ -4040,7 +5156,7 @@
         <v>6</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>139</v>
       </c>
       <c r="H78">
@@ -4071,11 +5187,24 @@
         <v>141</v>
       </c>
       <c r="S78" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W78">
+        <v>477</v>
+      </c>
+      <c r="X78">
+        <v>95</v>
+      </c>
+      <c r="Y78">
+        <v>133</v>
+      </c>
+      <c r="Z78" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>650</v>
       </c>
@@ -4083,7 +5212,7 @@
         <v>2</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>141</v>
       </c>
       <c r="H79">
@@ -4114,11 +5243,24 @@
         <v>141</v>
       </c>
       <c r="S79" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W79">
+        <v>478</v>
+      </c>
+      <c r="X79">
+        <v>97</v>
+      </c>
+      <c r="Y79">
+        <v>133</v>
+      </c>
+      <c r="Z79" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>651</v>
       </c>
@@ -4126,7 +5268,7 @@
         <v>16</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>157</v>
       </c>
       <c r="H80">
@@ -4157,11 +5299,24 @@
         <v>141</v>
       </c>
       <c r="S80" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W80">
+        <v>491</v>
+      </c>
+      <c r="X80">
+        <v>97</v>
+      </c>
+      <c r="Y80">
+        <v>141</v>
+      </c>
+      <c r="Z80" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>657</v>
       </c>
@@ -4169,7 +5324,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>161</v>
       </c>
       <c r="H81">
@@ -4200,11 +5355,24 @@
         <v>141</v>
       </c>
       <c r="S81" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W81">
+        <v>493</v>
+      </c>
+      <c r="X81">
+        <v>103</v>
+      </c>
+      <c r="Y81">
+        <v>141</v>
+      </c>
+      <c r="Z81" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>658</v>
       </c>
@@ -4212,7 +5380,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>177</v>
       </c>
       <c r="H82">
@@ -4243,11 +5411,24 @@
         <v>141</v>
       </c>
       <c r="S82" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W82">
+        <v>494</v>
+      </c>
+      <c r="X82">
+        <v>107</v>
+      </c>
+      <c r="Y82">
+        <v>141</v>
+      </c>
+      <c r="Z82" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>666</v>
       </c>
@@ -4255,7 +5436,7 @@
         <v>-20</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>157</v>
       </c>
       <c r="H83">
@@ -4286,11 +5467,24 @@
         <v>141</v>
       </c>
       <c r="S83" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W83">
+        <v>501</v>
+      </c>
+      <c r="X83">
+        <v>113</v>
+      </c>
+      <c r="Y83">
+        <v>141</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>686</v>
       </c>
@@ -4298,7 +5492,7 @@
         <v>-1</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>156</v>
       </c>
       <c r="H84">
@@ -4329,11 +5523,24 @@
         <v>141</v>
       </c>
       <c r="S84" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W84">
+        <v>511</v>
+      </c>
+      <c r="X84">
+        <v>115</v>
+      </c>
+      <c r="Y84">
+        <v>141</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>688</v>
       </c>
@@ -4341,7 +5548,7 @@
         <v>-1</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H85">
@@ -4372,11 +5579,24 @@
         <v>141</v>
       </c>
       <c r="S85" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W85">
+        <v>512</v>
+      </c>
+      <c r="X85">
+        <v>116</v>
+      </c>
+      <c r="Y85">
+        <v>141</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>690</v>
       </c>
@@ -4384,7 +5604,7 @@
         <v>-1</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="H86">
@@ -4415,11 +5635,24 @@
         <v>141</v>
       </c>
       <c r="S86" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W86">
+        <v>534</v>
+      </c>
+      <c r="X86">
+        <v>117</v>
+      </c>
+      <c r="Y86">
+        <v>141</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>691</v>
       </c>
@@ -4427,7 +5660,7 @@
         <v>-3</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>151</v>
       </c>
       <c r="H87">
@@ -4458,11 +5691,24 @@
         <v>141</v>
       </c>
       <c r="S87" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W87">
+        <v>535</v>
+      </c>
+      <c r="X87">
+        <v>119</v>
+      </c>
+      <c r="Y87">
+        <v>141</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>692</v>
       </c>
@@ -4470,7 +5716,7 @@
         <v>-2</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>149</v>
       </c>
       <c r="H88">
@@ -4501,7 +5747,7 @@
         <v>141</v>
       </c>
       <c r="S88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U88">
@@ -4511,8 +5757,21 @@
       <c r="V88" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W88">
+        <v>540</v>
+      </c>
+      <c r="X88">
+        <v>118</v>
+      </c>
+      <c r="Y88">
+        <v>141</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>693</v>
       </c>
@@ -4520,7 +5779,7 @@
         <v>-5</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
       <c r="H89">
@@ -4551,11 +5810,24 @@
         <v>149</v>
       </c>
       <c r="S89" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W89">
+        <v>547</v>
+      </c>
+      <c r="X89">
+        <v>119</v>
+      </c>
+      <c r="Y89">
+        <v>141</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>694</v>
       </c>
@@ -4563,7 +5835,7 @@
         <v>-9</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>135</v>
       </c>
       <c r="H90">
@@ -4594,11 +5866,24 @@
         <v>157</v>
       </c>
       <c r="S90" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W90">
+        <v>554</v>
+      </c>
+      <c r="X90">
+        <v>125</v>
+      </c>
+      <c r="Y90">
+        <v>141</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>696</v>
       </c>
@@ -4606,7 +5891,7 @@
         <v>-11</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>124</v>
       </c>
       <c r="H91">
@@ -4637,11 +5922,24 @@
         <v>157</v>
       </c>
       <c r="S91" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W91">
+        <v>559</v>
+      </c>
+      <c r="X91">
+        <v>126</v>
+      </c>
+      <c r="Y91">
+        <v>141</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>697</v>
       </c>
@@ -4649,7 +5947,7 @@
         <v>-5</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>119</v>
       </c>
       <c r="H92">
@@ -4680,11 +5978,24 @@
         <v>165</v>
       </c>
       <c r="S92" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W92">
+        <v>560</v>
+      </c>
+      <c r="X92">
+        <v>128</v>
+      </c>
+      <c r="Y92">
+        <v>141</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>698</v>
       </c>
@@ -4692,7 +6003,7 @@
         <v>-2</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>117</v>
       </c>
       <c r="H93">
@@ -4723,11 +6034,24 @@
         <v>173</v>
       </c>
       <c r="S93" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W93">
+        <v>563</v>
+      </c>
+      <c r="X93">
+        <v>138</v>
+      </c>
+      <c r="Y93">
+        <v>141</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>699</v>
       </c>
@@ -4735,7 +6059,7 @@
         <v>4</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="H94">
@@ -4766,11 +6090,24 @@
         <v>181</v>
       </c>
       <c r="S94" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W94">
+        <v>588</v>
+      </c>
+      <c r="X94">
+        <v>140</v>
+      </c>
+      <c r="Y94">
+        <v>141</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>700</v>
       </c>
@@ -4778,7 +6115,7 @@
         <v>8</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>129</v>
       </c>
       <c r="H95">
@@ -4809,11 +6146,24 @@
         <v>189</v>
       </c>
       <c r="S95" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W95">
+        <v>603</v>
+      </c>
+      <c r="X95">
+        <v>140</v>
+      </c>
+      <c r="Y95">
+        <v>149</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>702</v>
       </c>
@@ -4821,7 +6171,7 @@
         <v>-6</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>123</v>
       </c>
       <c r="H96">
@@ -4852,11 +6202,24 @@
         <v>189</v>
       </c>
       <c r="S96" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W96">
+        <v>607</v>
+      </c>
+      <c r="X96">
+        <v>139</v>
+      </c>
+      <c r="Y96">
+        <v>157</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>708</v>
       </c>
@@ -4864,7 +6227,7 @@
         <v>6</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>129</v>
       </c>
       <c r="H97">
@@ -4895,11 +6258,24 @@
         <v>189</v>
       </c>
       <c r="S97" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W97">
+        <v>610</v>
+      </c>
+      <c r="X97">
+        <v>139</v>
+      </c>
+      <c r="Y97">
+        <v>165</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>713</v>
       </c>
@@ -4907,7 +6283,7 @@
         <v>-2</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>127</v>
       </c>
       <c r="H98">
@@ -4938,11 +6314,24 @@
         <v>204</v>
       </c>
       <c r="S98" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W98">
+        <v>612</v>
+      </c>
+      <c r="X98">
+        <v>139</v>
+      </c>
+      <c r="Y98">
+        <v>173</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>716</v>
       </c>
@@ -4950,7 +6339,7 @@
         <v>-1</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>126</v>
       </c>
       <c r="H99">
@@ -4981,11 +6370,24 @@
         <v>204</v>
       </c>
       <c r="S99" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W99">
+        <v>615</v>
+      </c>
+      <c r="X99">
+        <v>139</v>
+      </c>
+      <c r="Y99">
+        <v>181</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>726</v>
       </c>
@@ -4993,7 +6395,7 @@
         <v>8</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>134</v>
       </c>
       <c r="H100">
@@ -5024,11 +6426,24 @@
         <v>204</v>
       </c>
       <c r="S100" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W100">
+        <v>617</v>
+      </c>
+      <c r="X100">
+        <v>139</v>
+      </c>
+      <c r="Y100">
+        <v>189</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>727</v>
       </c>
@@ -5036,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>134</v>
       </c>
       <c r="H101">
@@ -5067,11 +6482,24 @@
         <v>204</v>
       </c>
       <c r="S101" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W101">
+        <v>650</v>
+      </c>
+      <c r="X101">
+        <v>141</v>
+      </c>
+      <c r="Y101">
+        <v>189</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>729</v>
       </c>
@@ -5079,7 +6507,7 @@
         <v>7</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>141</v>
       </c>
       <c r="H102">
@@ -5110,11 +6538,24 @@
         <v>196</v>
       </c>
       <c r="S102" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W102">
+        <v>651</v>
+      </c>
+      <c r="X102">
+        <v>157</v>
+      </c>
+      <c r="Y102">
+        <v>189</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>730</v>
       </c>
@@ -5122,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>142</v>
       </c>
       <c r="H103">
@@ -5153,11 +6594,24 @@
         <v>188</v>
       </c>
       <c r="S103" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W103">
+        <v>654</v>
+      </c>
+      <c r="X103">
+        <v>163</v>
+      </c>
+      <c r="Y103">
+        <v>189</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>741</v>
       </c>
@@ -5165,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>143</v>
       </c>
       <c r="H104">
@@ -5196,11 +6650,24 @@
         <v>188</v>
       </c>
       <c r="S104" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W104">
+        <v>655</v>
+      </c>
+      <c r="X104">
+        <v>163</v>
+      </c>
+      <c r="Y104">
+        <v>204</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>767</v>
       </c>
@@ -5208,7 +6675,7 @@
         <v>2</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>145</v>
       </c>
       <c r="H105">
@@ -5239,11 +6706,24 @@
         <v>188</v>
       </c>
       <c r="S105" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W105">
+        <v>658</v>
+      </c>
+      <c r="X105">
+        <v>183</v>
+      </c>
+      <c r="Y105">
+        <v>204</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>768</v>
       </c>
@@ -5251,7 +6731,7 @@
         <v>16</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>161</v>
       </c>
       <c r="H106">
@@ -5282,11 +6762,24 @@
         <v>188</v>
       </c>
       <c r="S106" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W106">
+        <v>666</v>
+      </c>
+      <c r="X106">
+        <v>171</v>
+      </c>
+      <c r="Y106">
+        <v>204</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>772</v>
       </c>
@@ -5294,7 +6787,7 @@
         <v>8</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
       <c r="H107">
@@ -5325,11 +6818,24 @@
         <v>188</v>
       </c>
       <c r="S107" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W107">
+        <v>667</v>
+      </c>
+      <c r="X107">
+        <v>163</v>
+      </c>
+      <c r="Y107">
+        <v>204</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>775</v>
       </c>
@@ -5337,7 +6843,7 @@
         <v>2</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>171</v>
       </c>
       <c r="H108">
@@ -5368,11 +6874,24 @@
         <v>188</v>
       </c>
       <c r="S108" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W108">
+        <v>673</v>
+      </c>
+      <c r="X108">
+        <v>163</v>
+      </c>
+      <c r="Y108">
+        <v>196</v>
+      </c>
+      <c r="Z108" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>776</v>
       </c>
@@ -5380,7 +6899,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>173</v>
       </c>
       <c r="H109">
@@ -5411,11 +6930,24 @@
         <v>188</v>
       </c>
       <c r="S109" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W109">
+        <v>683</v>
+      </c>
+      <c r="X109">
+        <v>163</v>
+      </c>
+      <c r="Y109">
+        <v>188</v>
+      </c>
+      <c r="Z109" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>778</v>
       </c>
@@ -5423,7 +6955,7 @@
         <v>6</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>179</v>
       </c>
       <c r="H110">
@@ -5454,11 +6986,24 @@
         <v>188</v>
       </c>
       <c r="S110" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W110">
+        <v>686</v>
+      </c>
+      <c r="X110">
+        <v>162</v>
+      </c>
+      <c r="Y110">
+        <v>188</v>
+      </c>
+      <c r="Z110" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>780</v>
       </c>
@@ -5466,7 +7011,7 @@
         <v>-8</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>171</v>
       </c>
       <c r="H111">
@@ -5497,11 +7042,24 @@
         <v>188</v>
       </c>
       <c r="S111" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W111">
+        <v>688</v>
+      </c>
+      <c r="X111">
+        <v>161</v>
+      </c>
+      <c r="Y111">
+        <v>188</v>
+      </c>
+      <c r="Z111" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>820</v>
       </c>
@@ -5509,7 +7067,7 @@
         <v>16</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>187</v>
       </c>
       <c r="H112">
@@ -5540,11 +7098,24 @@
         <v>188</v>
       </c>
       <c r="S112" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W112">
+        <v>690</v>
+      </c>
+      <c r="X112">
+        <v>160</v>
+      </c>
+      <c r="Y112">
+        <v>188</v>
+      </c>
+      <c r="Z112" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>822</v>
       </c>
@@ -5552,7 +7123,7 @@
         <v>6</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>193</v>
       </c>
       <c r="H113">
@@ -5583,11 +7154,24 @@
         <v>188</v>
       </c>
       <c r="S113" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W113">
+        <v>691</v>
+      </c>
+      <c r="X113">
+        <v>159</v>
+      </c>
+      <c r="Y113">
+        <v>188</v>
+      </c>
+      <c r="Z113" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>824</v>
       </c>
@@ -5595,7 +7179,7 @@
         <v>2</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
       <c r="H114">
@@ -5626,11 +7210,24 @@
         <v>188</v>
       </c>
       <c r="S114" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W114">
+        <v>692</v>
+      </c>
+      <c r="X114">
+        <v>157</v>
+      </c>
+      <c r="Y114">
+        <v>188</v>
+      </c>
+      <c r="Z114" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>825</v>
       </c>
@@ -5638,7 +7235,7 @@
         <v>13</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>208</v>
       </c>
       <c r="H115">
@@ -5669,11 +7266,24 @@
         <v>188</v>
       </c>
       <c r="S115" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W115">
+        <v>693</v>
+      </c>
+      <c r="X115">
+        <v>154</v>
+      </c>
+      <c r="Y115">
+        <v>188</v>
+      </c>
+      <c r="Z115" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>827</v>
       </c>
@@ -5681,7 +7291,7 @@
         <v>4</v>
       </c>
       <c r="C116" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>212</v>
       </c>
       <c r="H116">
@@ -5712,11 +7322,24 @@
         <v>188</v>
       </c>
       <c r="S116" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W116">
+        <v>694</v>
+      </c>
+      <c r="X116">
+        <v>142</v>
+      </c>
+      <c r="Y116">
+        <v>188</v>
+      </c>
+      <c r="Z116" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>829</v>
       </c>
@@ -5724,7 +7347,7 @@
         <v>-1</v>
       </c>
       <c r="C117" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>211</v>
       </c>
       <c r="H117">
@@ -5755,11 +7378,24 @@
         <v>188</v>
       </c>
       <c r="S117" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W117">
+        <v>695</v>
+      </c>
+      <c r="X117">
+        <v>141</v>
+      </c>
+      <c r="Y117">
+        <v>188</v>
+      </c>
+      <c r="Z117" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>833</v>
       </c>
@@ -5767,7 +7403,7 @@
         <v>-8</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>203</v>
       </c>
       <c r="H118">
@@ -5798,11 +7434,24 @@
         <v>188</v>
       </c>
       <c r="S118" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W118">
+        <v>696</v>
+      </c>
+      <c r="X118">
+        <v>136</v>
+      </c>
+      <c r="Y118">
+        <v>188</v>
+      </c>
+      <c r="Z118" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>834</v>
       </c>
@@ -5810,7 +7459,7 @@
         <v>-4</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>199</v>
       </c>
       <c r="H119">
@@ -5841,11 +7490,24 @@
         <v>188</v>
       </c>
       <c r="S119" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W119">
+        <v>697</v>
+      </c>
+      <c r="X119">
+        <v>125</v>
+      </c>
+      <c r="Y119">
+        <v>188</v>
+      </c>
+      <c r="Z119" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>835</v>
       </c>
@@ -5853,7 +7515,7 @@
         <v>-4</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
       <c r="H120">
@@ -5884,11 +7546,24 @@
         <v>188</v>
       </c>
       <c r="S120" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W120">
+        <v>698</v>
+      </c>
+      <c r="X120">
+        <v>123</v>
+      </c>
+      <c r="Y120">
+        <v>188</v>
+      </c>
+      <c r="Z120" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>858</v>
       </c>
@@ -5896,7 +7571,7 @@
         <v>-2</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>193</v>
       </c>
       <c r="H121">
@@ -5927,11 +7602,24 @@
         <v>188</v>
       </c>
       <c r="S121" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W121">
+        <v>699</v>
+      </c>
+      <c r="X121">
+        <v>119</v>
+      </c>
+      <c r="Y121">
+        <v>188</v>
+      </c>
+      <c r="Z121" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>868</v>
       </c>
@@ -5939,7 +7627,7 @@
         <v>-4</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>189</v>
       </c>
       <c r="H122">
@@ -5970,11 +7658,24 @@
         <v>188</v>
       </c>
       <c r="S122" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W122">
+        <v>700</v>
+      </c>
+      <c r="X122">
+        <v>135</v>
+      </c>
+      <c r="Y122">
+        <v>188</v>
+      </c>
+      <c r="Z122" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>869</v>
       </c>
@@ -5982,7 +7683,7 @@
         <v>-4</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="H123">
@@ -6013,11 +7714,24 @@
         <v>188</v>
       </c>
       <c r="S123" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W123">
+        <v>702</v>
+      </c>
+      <c r="X123">
+        <v>129</v>
+      </c>
+      <c r="Y123">
+        <v>188</v>
+      </c>
+      <c r="Z123" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>870</v>
       </c>
@@ -6025,7 +7739,7 @@
         <v>-4</v>
       </c>
       <c r="C124" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>181</v>
       </c>
       <c r="H124">
@@ -6056,11 +7770,24 @@
         <v>188</v>
       </c>
       <c r="S124" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W124">
+        <v>713</v>
+      </c>
+      <c r="X124">
+        <v>128</v>
+      </c>
+      <c r="Y124">
+        <v>188</v>
+      </c>
+      <c r="Z124" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>871</v>
       </c>
@@ -6068,7 +7795,7 @@
         <v>-2</v>
       </c>
       <c r="C125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>179</v>
       </c>
       <c r="H125">
@@ -6099,11 +7826,24 @@
         <v>188</v>
       </c>
       <c r="S125" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W125">
+        <v>714</v>
+      </c>
+      <c r="X125">
+        <v>127</v>
+      </c>
+      <c r="Y125">
+        <v>188</v>
+      </c>
+      <c r="Z125" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>873</v>
       </c>
@@ -6111,7 +7851,7 @@
         <v>-2</v>
       </c>
       <c r="C126" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>177</v>
       </c>
       <c r="H126">
@@ -6142,7 +7882,7 @@
         <v>188</v>
       </c>
       <c r="S126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U126">
@@ -6152,8 +7892,21 @@
       <c r="V126" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W126">
+        <v>716</v>
+      </c>
+      <c r="X126">
+        <v>126</v>
+      </c>
+      <c r="Y126">
+        <v>188</v>
+      </c>
+      <c r="Z126" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>874</v>
       </c>
@@ -6161,7 +7914,7 @@
         <v>-2</v>
       </c>
       <c r="C127" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="H127">
@@ -6192,11 +7945,24 @@
         <v>188</v>
       </c>
       <c r="S127" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W127">
+        <v>717</v>
+      </c>
+      <c r="X127">
+        <v>128</v>
+      </c>
+      <c r="Y127">
+        <v>188</v>
+      </c>
+      <c r="Z127" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>875</v>
       </c>
@@ -6204,7 +7970,7 @@
         <v>-8</v>
       </c>
       <c r="C128" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>167</v>
       </c>
       <c r="H128">
@@ -6235,11 +8001,24 @@
         <v>188</v>
       </c>
       <c r="S128" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W128">
+        <v>718</v>
+      </c>
+      <c r="X128">
+        <v>130</v>
+      </c>
+      <c r="Y128">
+        <v>188</v>
+      </c>
+      <c r="Z128" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>876</v>
       </c>
@@ -6247,7 +8026,7 @@
         <v>-2</v>
       </c>
       <c r="C129" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="H129">
@@ -6278,11 +8057,24 @@
         <v>188</v>
       </c>
       <c r="S129" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W129">
+        <v>724</v>
+      </c>
+      <c r="X129">
+        <v>136</v>
+      </c>
+      <c r="Y129">
+        <v>188</v>
+      </c>
+      <c r="Z129" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>877</v>
       </c>
@@ -6290,7 +8082,7 @@
         <v>-4</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>161</v>
       </c>
       <c r="H130">
@@ -6321,11 +8113,24 @@
         <v>188</v>
       </c>
       <c r="S130" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W130">
+        <v>726</v>
+      </c>
+      <c r="X130">
+        <v>142</v>
+      </c>
+      <c r="Y130">
+        <v>188</v>
+      </c>
+      <c r="Z130" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>878</v>
       </c>
@@ -6333,7 +8138,7 @@
         <v>-14</v>
       </c>
       <c r="C131" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>147</v>
       </c>
       <c r="H131">
@@ -6364,11 +8169,24 @@
         <v>188</v>
       </c>
       <c r="S131" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W131">
+        <v>727</v>
+      </c>
+      <c r="X131">
+        <v>144</v>
+      </c>
+      <c r="Y131">
+        <v>188</v>
+      </c>
+      <c r="Z131" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>880</v>
       </c>
@@ -6376,7 +8194,7 @@
         <v>8</v>
       </c>
       <c r="C132" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="H132">
@@ -6407,11 +8225,24 @@
         <v>196</v>
       </c>
       <c r="S132" t="str">
-        <f t="shared" ref="S132:S165" si="5">IF(Q132&gt;=R132, "BLOCKED", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="S132:S165" si="7">IF(Q132&gt;=R132, "BLOCKED", "")</f>
+        <v/>
+      </c>
+      <c r="W132">
+        <v>729</v>
+      </c>
+      <c r="X132">
+        <v>149</v>
+      </c>
+      <c r="Y132">
+        <v>188</v>
+      </c>
+      <c r="Z132" t="str">
+        <f t="shared" ref="Z132:Z175" si="8">IF(X132&gt;=Y132, "BLOCKED", "-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>883</v>
       </c>
@@ -6419,7 +8250,7 @@
         <v>-6</v>
       </c>
       <c r="C133" s="1">
-        <f t="shared" ref="C133:C143" si="6">C132+B133</f>
+        <f t="shared" ref="C133:C143" si="9">C132+B133</f>
         <v>149</v>
       </c>
       <c r="H133">
@@ -6450,11 +8281,24 @@
         <v>204</v>
       </c>
       <c r="S133" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W133">
+        <v>763</v>
+      </c>
+      <c r="X133">
+        <v>151</v>
+      </c>
+      <c r="Y133">
+        <v>188</v>
+      </c>
+      <c r="Z133" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>884</v>
       </c>
@@ -6462,7 +8306,7 @@
         <v>-2</v>
       </c>
       <c r="C134" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>147</v>
       </c>
       <c r="H134">
@@ -6493,11 +8337,24 @@
         <v>204</v>
       </c>
       <c r="S134" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W134">
+        <v>764</v>
+      </c>
+      <c r="X134">
+        <v>153</v>
+      </c>
+      <c r="Y134">
+        <v>188</v>
+      </c>
+      <c r="Z134" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>885</v>
       </c>
@@ -6505,7 +8362,7 @@
         <v>-4</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>143</v>
       </c>
       <c r="H135">
@@ -6536,11 +8393,24 @@
         <v>204</v>
       </c>
       <c r="S135" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W135">
+        <v>768</v>
+      </c>
+      <c r="X135">
+        <v>161</v>
+      </c>
+      <c r="Y135">
+        <v>188</v>
+      </c>
+      <c r="Z135" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>938</v>
       </c>
@@ -6548,7 +8418,7 @@
         <v>18</v>
       </c>
       <c r="C136" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>161</v>
       </c>
       <c r="H136">
@@ -6579,15 +8449,28 @@
         <v>204</v>
       </c>
       <c r="S136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>BLOCKED</v>
       </c>
       <c r="T136">
         <f>P139-P136</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W136">
+        <v>769</v>
+      </c>
+      <c r="X136">
+        <v>177</v>
+      </c>
+      <c r="Y136">
+        <v>188</v>
+      </c>
+      <c r="Z136" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>953</v>
       </c>
@@ -6595,7 +8478,7 @@
         <v>12</v>
       </c>
       <c r="C137" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>173</v>
       </c>
       <c r="H137">
@@ -6626,11 +8509,24 @@
         <v>204</v>
       </c>
       <c r="S137" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>BLOCKED</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W137">
+        <v>772</v>
+      </c>
+      <c r="X137">
+        <v>181</v>
+      </c>
+      <c r="Y137">
+        <v>188</v>
+      </c>
+      <c r="Z137" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>956</v>
       </c>
@@ -6638,7 +8534,7 @@
         <v>-2</v>
       </c>
       <c r="C138" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>171</v>
       </c>
       <c r="H138">
@@ -6669,11 +8565,24 @@
         <v>212</v>
       </c>
       <c r="S138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>BLOCKED</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W138">
+        <v>773</v>
+      </c>
+      <c r="X138">
+        <v>185</v>
+      </c>
+      <c r="Y138">
+        <v>188</v>
+      </c>
+      <c r="Z138" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>958</v>
       </c>
@@ -6681,7 +8590,7 @@
         <v>-4</v>
       </c>
       <c r="C139" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>167</v>
       </c>
       <c r="H139">
@@ -6712,11 +8621,24 @@
         <v>212</v>
       </c>
       <c r="S139" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W139">
+        <v>781</v>
+      </c>
+      <c r="X139">
+        <v>177</v>
+      </c>
+      <c r="Y139">
+        <v>188</v>
+      </c>
+      <c r="Z139" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>959</v>
       </c>
@@ -6724,7 +8646,7 @@
         <v>-4</v>
       </c>
       <c r="C140" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>163</v>
       </c>
       <c r="H140">
@@ -6755,11 +8677,24 @@
         <v>212</v>
       </c>
       <c r="S140" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W140">
+        <v>812</v>
+      </c>
+      <c r="X140">
+        <v>178</v>
+      </c>
+      <c r="Y140">
+        <v>188</v>
+      </c>
+      <c r="Z140" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>960</v>
       </c>
@@ -6767,7 +8702,7 @@
         <v>-8</v>
       </c>
       <c r="C141" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>155</v>
       </c>
       <c r="H141">
@@ -6798,11 +8733,24 @@
         <v>212</v>
       </c>
       <c r="S141" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W141">
+        <v>813</v>
+      </c>
+      <c r="X141">
+        <v>180</v>
+      </c>
+      <c r="Y141">
+        <v>188</v>
+      </c>
+      <c r="Z141" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>961</v>
       </c>
@@ -6810,7 +8758,7 @@
         <v>-4</v>
       </c>
       <c r="C142" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>151</v>
       </c>
       <c r="H142">
@@ -6841,11 +8789,24 @@
         <v>212</v>
       </c>
       <c r="S142" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W142">
+        <v>817</v>
+      </c>
+      <c r="X142">
+        <v>180</v>
+      </c>
+      <c r="Y142">
+        <v>196</v>
+      </c>
+      <c r="Z142" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>963</v>
       </c>
@@ -6853,7 +8814,7 @@
         <v>-4</v>
       </c>
       <c r="C143" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>147</v>
       </c>
       <c r="H143">
@@ -6884,7 +8845,7 @@
         <v>212</v>
       </c>
       <c r="S143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U143">
@@ -6894,8 +8855,21 @@
       <c r="V143" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W143">
+        <v>820</v>
+      </c>
+      <c r="X143">
+        <v>196</v>
+      </c>
+      <c r="Y143">
+        <v>204</v>
+      </c>
+      <c r="Z143" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="H144">
         <v>829</v>
       </c>
@@ -6924,11 +8898,28 @@
         <v>212</v>
       </c>
       <c r="S144" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="8:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W144">
+        <v>825</v>
+      </c>
+      <c r="X144">
+        <v>204</v>
+      </c>
+      <c r="Y144">
+        <v>204</v>
+      </c>
+      <c r="Z144" t="str">
+        <f t="shared" si="8"/>
+        <v>BLOCKED</v>
+      </c>
+      <c r="AA144">
+        <f>W148-W144</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H145">
         <v>833</v>
       </c>
@@ -6957,11 +8948,24 @@
         <v>227</v>
       </c>
       <c r="S145" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="8:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W145">
+        <v>826</v>
+      </c>
+      <c r="X145">
+        <v>208</v>
+      </c>
+      <c r="Y145">
+        <v>204</v>
+      </c>
+      <c r="Z145" t="str">
+        <f t="shared" si="8"/>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="146" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H146">
         <v>834</v>
       </c>
@@ -6990,11 +8994,24 @@
         <v>235</v>
       </c>
       <c r="S146" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="8:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W146">
+        <v>827</v>
+      </c>
+      <c r="X146">
+        <v>212</v>
+      </c>
+      <c r="Y146">
+        <v>204</v>
+      </c>
+      <c r="Z146" t="str">
+        <f t="shared" si="8"/>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="147" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H147">
         <v>835</v>
       </c>
@@ -7023,11 +9040,24 @@
         <v>235</v>
       </c>
       <c r="S147" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="8:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W147">
+        <v>828</v>
+      </c>
+      <c r="X147">
+        <v>212</v>
+      </c>
+      <c r="Y147">
+        <v>212</v>
+      </c>
+      <c r="Z147" t="str">
+        <f t="shared" si="8"/>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="148" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H148">
         <v>858</v>
       </c>
@@ -7056,11 +9086,24 @@
         <v>235</v>
       </c>
       <c r="S148" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="8:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W148">
+        <v>829</v>
+      </c>
+      <c r="X148">
+        <v>211</v>
+      </c>
+      <c r="Y148">
+        <v>212</v>
+      </c>
+      <c r="Z148" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="149" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H149">
         <v>868</v>
       </c>
@@ -7089,11 +9132,24 @@
         <v>235</v>
       </c>
       <c r="S149" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="8:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W149">
+        <v>834</v>
+      </c>
+      <c r="X149">
+        <v>199</v>
+      </c>
+      <c r="Y149">
+        <v>212</v>
+      </c>
+      <c r="Z149" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="150" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H150">
         <v>869</v>
       </c>
@@ -7122,11 +9178,24 @@
         <v>235</v>
       </c>
       <c r="S150" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="8:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W150">
+        <v>835</v>
+      </c>
+      <c r="X150">
+        <v>195</v>
+      </c>
+      <c r="Y150">
+        <v>212</v>
+      </c>
+      <c r="Z150" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="151" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H151">
         <v>869</v>
       </c>
@@ -7155,11 +9224,24 @@
         <v>235</v>
       </c>
       <c r="S151" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="8:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W151">
+        <v>858</v>
+      </c>
+      <c r="X151">
+        <v>193</v>
+      </c>
+      <c r="Y151">
+        <v>212</v>
+      </c>
+      <c r="Z151" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="152" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H152">
         <v>870</v>
       </c>
@@ -7188,11 +9270,24 @@
         <v>235</v>
       </c>
       <c r="S152" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="8:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W152">
+        <v>868</v>
+      </c>
+      <c r="X152">
+        <v>189</v>
+      </c>
+      <c r="Y152">
+        <v>212</v>
+      </c>
+      <c r="Z152" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="153" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H153">
         <v>870</v>
       </c>
@@ -7221,11 +9316,24 @@
         <v>235</v>
       </c>
       <c r="S153" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="8:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W153">
+        <v>869</v>
+      </c>
+      <c r="X153">
+        <v>187</v>
+      </c>
+      <c r="Y153">
+        <v>227</v>
+      </c>
+      <c r="Z153" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="154" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H154">
         <v>871</v>
       </c>
@@ -7254,11 +9362,24 @@
         <v>235</v>
       </c>
       <c r="S154" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="8:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W154">
+        <v>870</v>
+      </c>
+      <c r="X154">
+        <v>181</v>
+      </c>
+      <c r="Y154">
+        <v>227</v>
+      </c>
+      <c r="Z154" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="155" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H155">
         <v>873</v>
       </c>
@@ -7287,11 +9408,24 @@
         <v>235</v>
       </c>
       <c r="S155" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="8:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W155">
+        <v>871</v>
+      </c>
+      <c r="X155">
+        <v>179</v>
+      </c>
+      <c r="Y155">
+        <v>235</v>
+      </c>
+      <c r="Z155" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="156" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H156">
         <v>874</v>
       </c>
@@ -7320,11 +9454,24 @@
         <v>235</v>
       </c>
       <c r="S156" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="8:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W156">
+        <v>873</v>
+      </c>
+      <c r="X156">
+        <v>177</v>
+      </c>
+      <c r="Y156">
+        <v>235</v>
+      </c>
+      <c r="Z156" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="157" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H157">
         <v>875</v>
       </c>
@@ -7353,11 +9500,24 @@
         <v>235</v>
       </c>
       <c r="S157" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="8:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W157">
+        <v>874</v>
+      </c>
+      <c r="X157">
+        <v>175</v>
+      </c>
+      <c r="Y157">
+        <v>235</v>
+      </c>
+      <c r="Z157" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="158" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H158">
         <v>876</v>
       </c>
@@ -7386,11 +9546,24 @@
         <v>235</v>
       </c>
       <c r="S158" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="8:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W158">
+        <v>875</v>
+      </c>
+      <c r="X158">
+        <v>169</v>
+      </c>
+      <c r="Y158">
+        <v>235</v>
+      </c>
+      <c r="Z158" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="159" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H159">
         <v>877</v>
       </c>
@@ -7419,11 +9592,24 @@
         <v>235</v>
       </c>
       <c r="S159" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="8:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W159">
+        <v>876</v>
+      </c>
+      <c r="X159">
+        <v>167</v>
+      </c>
+      <c r="Y159">
+        <v>235</v>
+      </c>
+      <c r="Z159" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="160" spans="8:26" x14ac:dyDescent="0.25">
       <c r="H160">
         <v>878</v>
       </c>
@@ -7452,11 +9638,24 @@
         <v>235</v>
       </c>
       <c r="S160" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="8:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W160">
+        <v>877</v>
+      </c>
+      <c r="X160">
+        <v>161</v>
+      </c>
+      <c r="Y160">
+        <v>235</v>
+      </c>
+      <c r="Z160" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="161" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H161">
         <v>880</v>
       </c>
@@ -7485,11 +9684,24 @@
         <v>235</v>
       </c>
       <c r="S161" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="8:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W161">
+        <v>878</v>
+      </c>
+      <c r="X161">
+        <v>155</v>
+      </c>
+      <c r="Y161">
+        <v>235</v>
+      </c>
+      <c r="Z161" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="162" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H162">
         <v>883</v>
       </c>
@@ -7518,11 +9730,24 @@
         <v>235</v>
       </c>
       <c r="S162" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="8:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W162">
+        <v>879</v>
+      </c>
+      <c r="X162">
+        <v>147</v>
+      </c>
+      <c r="Y162">
+        <v>235</v>
+      </c>
+      <c r="Z162" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="163" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H163">
         <v>884</v>
       </c>
@@ -7551,11 +9776,24 @@
         <v>235</v>
       </c>
       <c r="S163" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="8:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W163">
+        <v>880</v>
+      </c>
+      <c r="X163">
+        <v>143</v>
+      </c>
+      <c r="Y163">
+        <v>235</v>
+      </c>
+      <c r="Z163" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="164" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H164">
         <v>885</v>
       </c>
@@ -7584,11 +9822,24 @@
         <v>235</v>
       </c>
       <c r="S164" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="8:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W164">
+        <v>881</v>
+      </c>
+      <c r="X164">
+        <v>155</v>
+      </c>
+      <c r="Y164">
+        <v>235</v>
+      </c>
+      <c r="Z164" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="165" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H165">
         <v>938</v>
       </c>
@@ -7617,11 +9868,24 @@
         <v>235</v>
       </c>
       <c r="S165" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="8:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W165">
+        <v>883</v>
+      </c>
+      <c r="X165">
+        <v>149</v>
+      </c>
+      <c r="Y165">
+        <v>235</v>
+      </c>
+      <c r="Z165" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="166" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H166">
         <v>953</v>
       </c>
@@ -7644,8 +9908,21 @@
         <f>SUM(T1:T165)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="167" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="W166">
+        <v>885</v>
+      </c>
+      <c r="X166">
+        <v>143</v>
+      </c>
+      <c r="Y166">
+        <v>235</v>
+      </c>
+      <c r="Z166" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="167" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H167">
         <v>956</v>
       </c>
@@ -7664,8 +9941,21 @@
       <c r="N167">
         <v>235</v>
       </c>
-    </row>
-    <row r="168" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="W167">
+        <v>899</v>
+      </c>
+      <c r="X167">
+        <v>155</v>
+      </c>
+      <c r="Y167">
+        <v>235</v>
+      </c>
+      <c r="Z167" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="168" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H168">
         <v>958</v>
       </c>
@@ -7684,8 +9974,21 @@
       <c r="N168">
         <v>235</v>
       </c>
-    </row>
-    <row r="169" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="W168">
+        <v>938</v>
+      </c>
+      <c r="X168">
+        <v>159</v>
+      </c>
+      <c r="Y168">
+        <v>235</v>
+      </c>
+      <c r="Z168" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="169" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H169">
         <v>959</v>
       </c>
@@ -7704,8 +10007,21 @@
       <c r="N169">
         <v>235</v>
       </c>
-    </row>
-    <row r="170" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="W169">
+        <v>939</v>
+      </c>
+      <c r="X169">
+        <v>173</v>
+      </c>
+      <c r="Y169">
+        <v>235</v>
+      </c>
+      <c r="Z169" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="170" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H170">
         <v>960</v>
       </c>
@@ -7724,8 +10040,21 @@
       <c r="N170">
         <v>235</v>
       </c>
-    </row>
-    <row r="171" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="W170">
+        <v>956</v>
+      </c>
+      <c r="X170">
+        <v>171</v>
+      </c>
+      <c r="Y170">
+        <v>235</v>
+      </c>
+      <c r="Z170" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="171" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H171">
         <v>961</v>
       </c>
@@ -7744,8 +10073,21 @@
       <c r="N171">
         <v>235</v>
       </c>
-    </row>
-    <row r="172" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="W171">
+        <v>959</v>
+      </c>
+      <c r="X171">
+        <v>163</v>
+      </c>
+      <c r="Y171">
+        <v>235</v>
+      </c>
+      <c r="Z171" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="172" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H172">
         <v>963</v>
       </c>
@@ -7763,6 +10105,70 @@
       </c>
       <c r="N172">
         <v>235</v>
+      </c>
+      <c r="W172">
+        <v>960</v>
+      </c>
+      <c r="X172">
+        <v>161</v>
+      </c>
+      <c r="Y172">
+        <v>235</v>
+      </c>
+      <c r="Z172" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="173" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="W173">
+        <v>961</v>
+      </c>
+      <c r="X173">
+        <v>153</v>
+      </c>
+      <c r="Y173">
+        <v>235</v>
+      </c>
+      <c r="Z173" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="174" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="W174">
+        <v>962</v>
+      </c>
+      <c r="X174">
+        <v>151</v>
+      </c>
+      <c r="Y174">
+        <v>235</v>
+      </c>
+      <c r="Z174" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="175" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="W175">
+        <v>963</v>
+      </c>
+      <c r="X175">
+        <v>147</v>
+      </c>
+      <c r="Y175">
+        <v>235</v>
+      </c>
+      <c r="Z175" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="176" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AA176">
+        <f>SUM(AA3:AA175)</f>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -7773,7 +10179,7 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="O1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dev_docs/pvt_macro1_supply_stats_good_results.xlsx
+++ b/dev_docs/pvt_macro1_supply_stats_good_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>time</t>
   </si>
@@ -115,6 +115,9 @@
   <si>
     <t>12s</t>
   </si>
+  <si>
+    <t>@50s - 20sc</t>
+  </si>
 </sst>
 </file>
 
@@ -158,12 +161,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA176"/>
+  <dimension ref="A1:AG176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA177" sqref="AA177"/>
+    <sheetView tabSelected="1" topLeftCell="P130" workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +459,7 @@
     <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -481,7 +485,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -548,8 +552,17 @@
       <c r="Y2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -623,8 +636,21 @@
         <f>IF(X3&gt;=Y3, "BLOCKED", "-")</f>
         <v>BLOCKED</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>12</v>
+      </c>
+      <c r="AD3">
+        <v>15</v>
+      </c>
+      <c r="AE3" t="str">
+        <f>IF(AC3&gt;=AD3, "BLOCKED", "-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -698,8 +724,21 @@
         <f t="shared" ref="Z4:Z67" si="1">IF(X4&gt;=Y4, "BLOCKED", "-")</f>
         <v>-</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>13</v>
+      </c>
+      <c r="AD4">
+        <v>15</v>
+      </c>
+      <c r="AE4" t="str">
+        <f t="shared" ref="AE4:AE67" si="2">IF(AC4&gt;=AD4, "BLOCKED", "-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25</v>
       </c>
@@ -707,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C68" si="2">C4+B5</f>
+        <f t="shared" ref="C5:C68" si="3">C4+B5</f>
         <v>14</v>
       </c>
       <c r="D5">
@@ -717,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F31" si="3">F4+E5</f>
+        <f t="shared" ref="F5:F31" si="4">F4+E5</f>
         <v>31</v>
       </c>
       <c r="H5">
@@ -773,8 +812,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <v>13</v>
+      </c>
+      <c r="AC5">
+        <v>14</v>
+      </c>
+      <c r="AD5">
+        <v>15</v>
+      </c>
+      <c r="AE5" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>37</v>
       </c>
@@ -782,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="D6">
@@ -792,7 +844,7 @@
         <v>15</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="H6">
@@ -846,8 +898,28 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <v>26</v>
+      </c>
+      <c r="AC6">
+        <v>15</v>
+      </c>
+      <c r="AD6">
+        <v>15</v>
+      </c>
+      <c r="AE6" t="str">
+        <f t="shared" si="2"/>
+        <v>BLOCKED</v>
+      </c>
+      <c r="AF6">
+        <f>AB8-AB6</f>
+        <v>15</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>51</v>
       </c>
@@ -855,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D7">
@@ -865,7 +937,7 @@
         <v>8</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="H7">
@@ -922,8 +994,21 @@
         <f>W9-W7</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <v>40</v>
+      </c>
+      <c r="AC7">
+        <v>16</v>
+      </c>
+      <c r="AD7">
+        <v>15</v>
+      </c>
+      <c r="AE7" t="str">
+        <f t="shared" si="2"/>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>59</v>
       </c>
@@ -931,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="D8">
@@ -941,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="H8">
@@ -997,8 +1082,21 @@
         <f t="shared" si="1"/>
         <v>BLOCKED</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <v>41</v>
+      </c>
+      <c r="AC8">
+        <v>16</v>
+      </c>
+      <c r="AD8">
+        <v>23</v>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>67</v>
       </c>
@@ -1006,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="D9">
@@ -1016,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="H9">
@@ -1072,8 +1170,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <v>48</v>
+      </c>
+      <c r="AC9">
+        <v>17</v>
+      </c>
+      <c r="AD9">
+        <v>23</v>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>79</v>
       </c>
@@ -1081,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="D10">
@@ -1091,7 +1202,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="H10">
@@ -1147,8 +1258,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <v>56</v>
+      </c>
+      <c r="AC10">
+        <v>18</v>
+      </c>
+      <c r="AD10">
+        <v>23</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>91</v>
       </c>
@@ -1156,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D11">
@@ -1166,7 +1290,7 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="H11">
@@ -1216,8 +1340,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <v>67</v>
+      </c>
+      <c r="AC11">
+        <v>19</v>
+      </c>
+      <c r="AD11">
+        <v>23</v>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>111</v>
       </c>
@@ -1225,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="D12">
@@ -1235,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="H12">
@@ -1285,8 +1422,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12">
+        <v>79</v>
+      </c>
+      <c r="AC12">
+        <v>20</v>
+      </c>
+      <c r="AD12">
+        <v>23</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>124</v>
       </c>
@@ -1294,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D13">
@@ -1304,7 +1454,7 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="H13">
@@ -1351,8 +1501,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13">
+        <v>99</v>
+      </c>
+      <c r="AC13">
+        <v>21</v>
+      </c>
+      <c r="AD13">
+        <v>23</v>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>140</v>
       </c>
@@ -1360,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="D14">
@@ -1370,7 +1533,7 @@
         <v>8</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="H14">
@@ -1420,8 +1583,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14">
+        <v>112</v>
+      </c>
+      <c r="AC14">
+        <v>22</v>
+      </c>
+      <c r="AD14">
+        <v>23</v>
+      </c>
+      <c r="AE14" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>155</v>
       </c>
@@ -1429,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="D15">
@@ -1439,7 +1615,7 @@
         <v>15</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
       <c r="H15">
@@ -1489,8 +1665,25 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15">
+        <v>128</v>
+      </c>
+      <c r="AC15">
+        <v>23</v>
+      </c>
+      <c r="AD15">
+        <v>23</v>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" si="2"/>
+        <v>BLOCKED</v>
+      </c>
+      <c r="AF15">
+        <f>AB17-AB15</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>161</v>
       </c>
@@ -1508,7 +1701,7 @@
         <v>8</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="H16">
@@ -1559,8 +1752,21 @@
         <f>W18-W16</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB16">
+        <v>131</v>
+      </c>
+      <c r="AC16">
+        <v>25</v>
+      </c>
+      <c r="AD16">
+        <v>23</v>
+      </c>
+      <c r="AE16" t="str">
+        <f t="shared" si="2"/>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>169</v>
       </c>
@@ -1568,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="D17">
@@ -1578,7 +1784,7 @@
         <v>8</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>141</v>
       </c>
       <c r="H17">
@@ -1625,8 +1831,21 @@
         <f t="shared" si="1"/>
         <v>BLOCKED</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <v>140</v>
+      </c>
+      <c r="AC17">
+        <v>25</v>
+      </c>
+      <c r="AD17">
+        <v>31</v>
+      </c>
+      <c r="AE17" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>181</v>
       </c>
@@ -1634,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="D18">
@@ -1644,7 +1863,7 @@
         <v>8</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>149</v>
       </c>
       <c r="H18">
@@ -1691,8 +1910,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <v>143</v>
+      </c>
+      <c r="AC18">
+        <v>26</v>
+      </c>
+      <c r="AD18">
+        <v>31</v>
+      </c>
+      <c r="AE18" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>189</v>
       </c>
@@ -1700,7 +1932,7 @@
         <v>-1</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="D19">
@@ -1710,7 +1942,7 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>157</v>
       </c>
       <c r="H19">
@@ -1757,8 +1989,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB19">
+        <v>157</v>
+      </c>
+      <c r="AC19">
+        <v>27</v>
+      </c>
+      <c r="AD19">
+        <v>31</v>
+      </c>
+      <c r="AE19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>192</v>
       </c>
@@ -1766,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="D20">
@@ -1776,7 +2021,7 @@
         <v>8</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>165</v>
       </c>
       <c r="H20">
@@ -1823,8 +2068,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB20">
+        <v>163</v>
+      </c>
+      <c r="AC20">
+        <v>27</v>
+      </c>
+      <c r="AD20">
+        <v>46</v>
+      </c>
+      <c r="AE20" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>193</v>
       </c>
@@ -1832,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="D21">
@@ -1842,7 +2100,7 @@
         <v>8</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>173</v>
       </c>
       <c r="H21">
@@ -1889,8 +2147,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB21">
+        <v>169</v>
+      </c>
+      <c r="AC21">
+        <v>28</v>
+      </c>
+      <c r="AD21">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>199</v>
       </c>
@@ -1898,7 +2169,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="D22">
@@ -1908,7 +2179,7 @@
         <v>8</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>181</v>
       </c>
       <c r="H22">
@@ -1955,8 +2226,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB22">
+        <v>174</v>
+      </c>
+      <c r="AC22">
+        <v>30</v>
+      </c>
+      <c r="AD22">
+        <v>46</v>
+      </c>
+      <c r="AE22" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>200</v>
       </c>
@@ -1964,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="D23">
@@ -1974,7 +2258,7 @@
         <v>8</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>189</v>
       </c>
       <c r="H23">
@@ -2021,8 +2305,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB23">
+        <v>180</v>
+      </c>
+      <c r="AC23">
+        <v>31</v>
+      </c>
+      <c r="AD23">
+        <v>46</v>
+      </c>
+      <c r="AE23" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>201</v>
       </c>
@@ -2030,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="D24">
@@ -2040,7 +2337,7 @@
         <v>15</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>204</v>
       </c>
       <c r="H24">
@@ -2087,8 +2384,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB24">
+        <v>181</v>
+      </c>
+      <c r="AC24">
+        <v>32</v>
+      </c>
+      <c r="AD24">
+        <v>46</v>
+      </c>
+      <c r="AE24" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>209</v>
       </c>
@@ -2096,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="D25">
@@ -2106,7 +2416,7 @@
         <v>-8</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>196</v>
       </c>
       <c r="H25">
@@ -2153,8 +2463,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB25">
+        <v>188</v>
+      </c>
+      <c r="AC25">
+        <v>33</v>
+      </c>
+      <c r="AD25">
+        <v>46</v>
+      </c>
+      <c r="AE25" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>234</v>
       </c>
@@ -2162,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="D26">
@@ -2172,7 +2495,7 @@
         <v>-8</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>188</v>
       </c>
       <c r="H26">
@@ -2219,8 +2542,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB26">
+        <v>189</v>
+      </c>
+      <c r="AC26">
+        <v>34</v>
+      </c>
+      <c r="AD26">
+        <v>46</v>
+      </c>
+      <c r="AE26" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>244</v>
       </c>
@@ -2228,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="D27">
@@ -2238,7 +2574,7 @@
         <v>8</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>196</v>
       </c>
       <c r="H27">
@@ -2285,8 +2621,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB27">
+        <v>190</v>
+      </c>
+      <c r="AC27">
+        <v>33</v>
+      </c>
+      <c r="AD27">
+        <v>46</v>
+      </c>
+      <c r="AE27" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>245</v>
       </c>
@@ -2294,7 +2643,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="D28">
@@ -2304,7 +2653,7 @@
         <v>8</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>204</v>
       </c>
       <c r="H28">
@@ -2351,8 +2700,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB28">
+        <v>197</v>
+      </c>
+      <c r="AC28">
+        <v>35</v>
+      </c>
+      <c r="AD28">
+        <v>46</v>
+      </c>
+      <c r="AE28" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>257</v>
       </c>
@@ -2360,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="D29">
@@ -2370,7 +2732,7 @@
         <v>8</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>212</v>
       </c>
       <c r="H29">
@@ -2417,8 +2779,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB29">
+        <v>205</v>
+      </c>
+      <c r="AC29">
+        <v>37</v>
+      </c>
+      <c r="AD29">
+        <v>46</v>
+      </c>
+      <c r="AE29" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>265</v>
       </c>
@@ -2426,7 +2801,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="D30">
@@ -2436,7 +2811,7 @@
         <v>15</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>227</v>
       </c>
       <c r="H30">
@@ -2483,8 +2858,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB30">
+        <v>206</v>
+      </c>
+      <c r="AC30">
+        <v>41</v>
+      </c>
+      <c r="AD30">
+        <v>46</v>
+      </c>
+      <c r="AE30" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>278</v>
       </c>
@@ -2492,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="D31">
@@ -2502,7 +2890,7 @@
         <v>8</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>235</v>
       </c>
       <c r="H31">
@@ -2549,8 +2937,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB31">
+        <v>232</v>
+      </c>
+      <c r="AC31">
+        <v>42</v>
+      </c>
+      <c r="AD31">
+        <v>46</v>
+      </c>
+      <c r="AE31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>286</v>
       </c>
@@ -2558,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="H32">
@@ -2609,8 +3010,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB32">
+        <v>245</v>
+      </c>
+      <c r="AC32">
+        <v>44</v>
+      </c>
+      <c r="AD32">
+        <v>46</v>
+      </c>
+      <c r="AE32" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>294</v>
       </c>
@@ -2618,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="H33">
@@ -2665,8 +3079,25 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB33">
+        <v>265</v>
+      </c>
+      <c r="AC33">
+        <v>46</v>
+      </c>
+      <c r="AD33">
+        <v>46</v>
+      </c>
+      <c r="AE33" t="str">
+        <f t="shared" si="2"/>
+        <v>BLOCKED</v>
+      </c>
+      <c r="AF33">
+        <f>AB35-AB33</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>302</v>
       </c>
@@ -2674,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="H34">
@@ -2725,8 +3156,21 @@
         <f>W36-W34</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB34">
+        <v>266</v>
+      </c>
+      <c r="AC34">
+        <v>48</v>
+      </c>
+      <c r="AD34">
+        <v>46</v>
+      </c>
+      <c r="AE34" t="str">
+        <f t="shared" si="2"/>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>303</v>
       </c>
@@ -2734,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="H35">
@@ -2781,8 +3225,21 @@
         <f t="shared" si="1"/>
         <v>BLOCKED</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB35">
+        <v>269</v>
+      </c>
+      <c r="AC35">
+        <v>48</v>
+      </c>
+      <c r="AD35">
+        <v>54</v>
+      </c>
+      <c r="AE35" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>311</v>
       </c>
@@ -2790,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="H36">
@@ -2837,8 +3294,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB36">
+        <v>270</v>
+      </c>
+      <c r="AC36">
+        <v>48</v>
+      </c>
+      <c r="AD36">
+        <v>62</v>
+      </c>
+      <c r="AE36" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>319</v>
       </c>
@@ -2846,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="H37">
@@ -2893,8 +3363,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB37">
+        <v>274</v>
+      </c>
+      <c r="AC37">
+        <v>50</v>
+      </c>
+      <c r="AD37">
+        <v>62</v>
+      </c>
+      <c r="AE37" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>326</v>
       </c>
@@ -2902,7 +3385,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="H38">
@@ -2949,8 +3432,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB38">
+        <v>283</v>
+      </c>
+      <c r="AC38">
+        <v>52</v>
+      </c>
+      <c r="AD38">
+        <v>62</v>
+      </c>
+      <c r="AE38" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>333</v>
       </c>
@@ -2958,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="H39">
@@ -3005,8 +3501,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB39">
+        <v>291</v>
+      </c>
+      <c r="AC39">
+        <v>54</v>
+      </c>
+      <c r="AD39">
+        <v>62</v>
+      </c>
+      <c r="AE39" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>335</v>
       </c>
@@ -3014,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="H40">
@@ -3061,8 +3570,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB40">
+        <v>293</v>
+      </c>
+      <c r="AC40">
+        <v>60</v>
+      </c>
+      <c r="AD40">
+        <v>62</v>
+      </c>
+      <c r="AE40" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>341</v>
       </c>
@@ -3070,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="H41">
@@ -3120,8 +3642,25 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB41">
+        <v>295</v>
+      </c>
+      <c r="AC41">
+        <v>62</v>
+      </c>
+      <c r="AD41">
+        <v>62</v>
+      </c>
+      <c r="AE41" t="str">
+        <f t="shared" si="2"/>
+        <v>BLOCKED</v>
+      </c>
+      <c r="AF41">
+        <f>AB44-AB41</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>346</v>
       </c>
@@ -3129,7 +3668,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="H42">
@@ -3180,8 +3719,21 @@
         <f>W45-W42</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB42">
+        <v>299</v>
+      </c>
+      <c r="AC42">
+        <v>64</v>
+      </c>
+      <c r="AD42">
+        <v>62</v>
+      </c>
+      <c r="AE42" t="str">
+        <f t="shared" si="2"/>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>347</v>
       </c>
@@ -3189,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="H43">
@@ -3236,8 +3788,21 @@
         <f t="shared" si="1"/>
         <v>BLOCKED</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB43">
+        <v>322</v>
+      </c>
+      <c r="AC43">
+        <v>65</v>
+      </c>
+      <c r="AD43">
+        <v>62</v>
+      </c>
+      <c r="AE43" t="str">
+        <f t="shared" si="2"/>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>349</v>
       </c>
@@ -3245,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="H44">
@@ -3292,8 +3857,21 @@
         <f t="shared" si="1"/>
         <v>BLOCKED</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB44">
+        <v>323</v>
+      </c>
+      <c r="AC44">
+        <v>66</v>
+      </c>
+      <c r="AD44">
+        <v>70</v>
+      </c>
+      <c r="AE44" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>351</v>
       </c>
@@ -3301,7 +3879,7 @@
         <v>-2</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="H45">
@@ -3348,8 +3926,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB45">
+        <v>327</v>
+      </c>
+      <c r="AC45">
+        <v>68</v>
+      </c>
+      <c r="AD45">
+        <v>70</v>
+      </c>
+      <c r="AE45" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>358</v>
       </c>
@@ -3357,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="H46">
@@ -3404,8 +3995,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB46">
+        <v>330</v>
+      </c>
+      <c r="AC46">
+        <v>69</v>
+      </c>
+      <c r="AD46">
+        <v>70</v>
+      </c>
+      <c r="AE46" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>381</v>
       </c>
@@ -3413,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="H47">
@@ -3460,8 +4064,25 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB47">
+        <v>335</v>
+      </c>
+      <c r="AC47">
+        <v>70</v>
+      </c>
+      <c r="AD47">
+        <v>70</v>
+      </c>
+      <c r="AE47" t="str">
+        <f t="shared" si="2"/>
+        <v>BLOCKED</v>
+      </c>
+      <c r="AF47">
+        <f>AB48-AB47</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>383</v>
       </c>
@@ -3469,7 +4090,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="H48">
@@ -3520,8 +4141,21 @@
         <f>W49-W48</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB48">
+        <v>336</v>
+      </c>
+      <c r="AC48">
+        <v>70</v>
+      </c>
+      <c r="AD48">
+        <v>78</v>
+      </c>
+      <c r="AE48" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>394</v>
       </c>
@@ -3529,7 +4163,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="H49">
@@ -3576,8 +4210,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB49">
+        <v>338</v>
+      </c>
+      <c r="AC49">
+        <v>71</v>
+      </c>
+      <c r="AD49">
+        <v>78</v>
+      </c>
+      <c r="AE49" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>400</v>
       </c>
@@ -3585,7 +4232,7 @@
         <v>-1</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="H50">
@@ -3632,8 +4279,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB50">
+        <v>352</v>
+      </c>
+      <c r="AC50">
+        <v>69</v>
+      </c>
+      <c r="AD50">
+        <v>78</v>
+      </c>
+      <c r="AE50" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>402</v>
       </c>
@@ -3641,7 +4301,7 @@
         <v>-1</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="H51">
@@ -3691,8 +4351,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB51">
+        <v>356</v>
+      </c>
+      <c r="AC51">
+        <v>75</v>
+      </c>
+      <c r="AD51">
+        <v>78</v>
+      </c>
+      <c r="AE51" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>409</v>
       </c>
@@ -3700,7 +4373,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="H52">
@@ -3747,8 +4420,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB52">
+        <v>358</v>
+      </c>
+      <c r="AC52">
+        <v>77</v>
+      </c>
+      <c r="AD52">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>410</v>
       </c>
@@ -3756,7 +4442,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="H53">
@@ -3803,8 +4489,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB53">
+        <v>365</v>
+      </c>
+      <c r="AC53">
+        <v>77</v>
+      </c>
+      <c r="AD53">
+        <v>86</v>
+      </c>
+      <c r="AE53" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>415</v>
       </c>
@@ -3812,7 +4511,7 @@
         <v>-1</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="H54">
@@ -3859,8 +4558,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB54">
+        <v>369</v>
+      </c>
+      <c r="AC54">
+        <v>78</v>
+      </c>
+      <c r="AD54">
+        <v>86</v>
+      </c>
+      <c r="AE54" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>421</v>
       </c>
@@ -3868,7 +4580,7 @@
         <v>-1</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="H55">
@@ -3915,8 +4627,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB55">
+        <v>382</v>
+      </c>
+      <c r="AC55">
+        <v>80</v>
+      </c>
+      <c r="AD55">
+        <v>86</v>
+      </c>
+      <c r="AE55" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>424</v>
       </c>
@@ -3924,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="H56">
@@ -3971,8 +4696,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB56">
+        <v>383</v>
+      </c>
+      <c r="AC56">
+        <v>82</v>
+      </c>
+      <c r="AD56">
+        <v>94</v>
+      </c>
+      <c r="AE56" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>426</v>
       </c>
@@ -3980,7 +4718,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="H57">
@@ -4027,8 +4765,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB57">
+        <v>397</v>
+      </c>
+      <c r="AC57">
+        <v>83</v>
+      </c>
+      <c r="AD57">
+        <v>94</v>
+      </c>
+      <c r="AE57" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>438</v>
       </c>
@@ -4036,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="H58">
@@ -4083,8 +4834,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB58">
+        <v>398</v>
+      </c>
+      <c r="AC58">
+        <v>84</v>
+      </c>
+      <c r="AD58">
+        <v>94</v>
+      </c>
+      <c r="AE58" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>440</v>
       </c>
@@ -4092,7 +4856,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="H59">
@@ -4139,8 +4903,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB59">
+        <v>400</v>
+      </c>
+      <c r="AC59">
+        <v>83</v>
+      </c>
+      <c r="AD59">
+        <v>94</v>
+      </c>
+      <c r="AE59" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>451</v>
       </c>
@@ -4148,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="H60">
@@ -4195,8 +4972,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB60">
+        <v>402</v>
+      </c>
+      <c r="AC60">
+        <v>82</v>
+      </c>
+      <c r="AD60">
+        <v>94</v>
+      </c>
+      <c r="AE60" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>465</v>
       </c>
@@ -4204,7 +4994,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="H61">
@@ -4251,8 +5041,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB61">
+        <v>403</v>
+      </c>
+      <c r="AC61">
+        <v>83</v>
+      </c>
+      <c r="AD61">
+        <v>94</v>
+      </c>
+      <c r="AE61" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>466</v>
       </c>
@@ -4260,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="H62">
@@ -4307,8 +5110,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB62">
+        <v>407</v>
+      </c>
+      <c r="AC62">
+        <v>83</v>
+      </c>
+      <c r="AD62">
+        <v>102</v>
+      </c>
+      <c r="AE62" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>471</v>
       </c>
@@ -4316,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="H63">
@@ -4363,8 +5179,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB63">
+        <v>408</v>
+      </c>
+      <c r="AC63">
+        <v>83</v>
+      </c>
+      <c r="AD63">
+        <v>110</v>
+      </c>
+      <c r="AE63" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>477</v>
       </c>
@@ -4372,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="H64">
@@ -4419,8 +5248,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB64">
+        <v>414</v>
+      </c>
+      <c r="AC64">
+        <v>84</v>
+      </c>
+      <c r="AD64">
+        <v>110</v>
+      </c>
+      <c r="AE64" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>478</v>
       </c>
@@ -4428,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="H65">
@@ -4475,8 +5317,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB65">
+        <v>415</v>
+      </c>
+      <c r="AC65">
+        <v>84</v>
+      </c>
+      <c r="AD65">
+        <v>110</v>
+      </c>
+      <c r="AE65" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>489</v>
       </c>
@@ -4484,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="H66">
@@ -4531,8 +5386,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB66">
+        <v>416</v>
+      </c>
+      <c r="AC66">
+        <v>84</v>
+      </c>
+      <c r="AD66">
+        <v>125</v>
+      </c>
+      <c r="AE66" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>493</v>
       </c>
@@ -4540,7 +5408,7 @@
         <v>10</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="H67">
@@ -4587,8 +5455,21 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB67">
+        <v>422</v>
+      </c>
+      <c r="AC67">
+        <v>83</v>
+      </c>
+      <c r="AD67">
+        <v>125</v>
+      </c>
+      <c r="AE67" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>523</v>
       </c>
@@ -4596,7 +5477,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="H68">
@@ -4627,7 +5508,7 @@
         <v>125</v>
       </c>
       <c r="S68" t="str">
-        <f t="shared" ref="S68:S131" si="4">IF(Q68&gt;=R68, "BLOCKED", "")</f>
+        <f t="shared" ref="S68:S131" si="5">IF(Q68&gt;=R68, "BLOCKED", "")</f>
         <v/>
       </c>
       <c r="W68">
@@ -4640,11 +5521,24 @@
         <v>125</v>
       </c>
       <c r="Z68" t="str">
-        <f t="shared" ref="Z68:Z131" si="5">IF(X68&gt;=Y68, "BLOCKED", "-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Z68:Z131" si="6">IF(X68&gt;=Y68, "BLOCKED", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="AB68">
+        <v>427</v>
+      </c>
+      <c r="AC68">
+        <v>84</v>
+      </c>
+      <c r="AD68">
+        <v>125</v>
+      </c>
+      <c r="AE68" t="str">
+        <f t="shared" ref="AE68:AE131" si="7">IF(AC68&gt;=AD68, "BLOCKED", "-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>539</v>
       </c>
@@ -4652,7 +5546,7 @@
         <v>-1</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" ref="C69:C132" si="6">C68+B69</f>
+        <f t="shared" ref="C69:C132" si="8">C68+B69</f>
         <v>109</v>
       </c>
       <c r="H69">
@@ -4683,7 +5577,7 @@
         <v>125</v>
       </c>
       <c r="S69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W69">
@@ -4696,11 +5590,24 @@
         <v>125</v>
       </c>
       <c r="Z69" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB69">
+        <v>428</v>
+      </c>
+      <c r="AC69">
+        <v>86</v>
+      </c>
+      <c r="AD69">
+        <v>125</v>
+      </c>
+      <c r="AE69" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>546</v>
       </c>
@@ -4708,7 +5615,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="H70">
@@ -4739,7 +5646,7 @@
         <v>125</v>
       </c>
       <c r="S70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W70">
@@ -4752,11 +5659,24 @@
         <v>125</v>
       </c>
       <c r="Z70" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB70">
+        <v>439</v>
+      </c>
+      <c r="AC70">
+        <v>87</v>
+      </c>
+      <c r="AD70">
+        <v>125</v>
+      </c>
+      <c r="AE70" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>555</v>
       </c>
@@ -4764,7 +5684,7 @@
         <v>6</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>118</v>
       </c>
       <c r="H71">
@@ -4795,7 +5715,7 @@
         <v>133</v>
       </c>
       <c r="S71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W71">
@@ -4808,11 +5728,24 @@
         <v>125</v>
       </c>
       <c r="Z71" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB71">
+        <v>451</v>
+      </c>
+      <c r="AC71">
+        <v>88</v>
+      </c>
+      <c r="AD71">
+        <v>125</v>
+      </c>
+      <c r="AE71" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>558</v>
       </c>
@@ -4820,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>119</v>
       </c>
       <c r="H72">
@@ -4851,7 +5784,7 @@
         <v>133</v>
       </c>
       <c r="S72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W72">
@@ -4864,11 +5797,24 @@
         <v>125</v>
       </c>
       <c r="Z72" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB72">
+        <v>453</v>
+      </c>
+      <c r="AC72">
+        <v>90</v>
+      </c>
+      <c r="AD72">
+        <v>125</v>
+      </c>
+      <c r="AE72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>562</v>
       </c>
@@ -4876,7 +5822,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>121</v>
       </c>
       <c r="H73">
@@ -4907,7 +5853,7 @@
         <v>133</v>
       </c>
       <c r="S73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W73">
@@ -4920,11 +5866,24 @@
         <v>125</v>
       </c>
       <c r="Z73" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB73">
+        <v>454</v>
+      </c>
+      <c r="AC73">
+        <v>91</v>
+      </c>
+      <c r="AD73">
+        <v>125</v>
+      </c>
+      <c r="AE73" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>563</v>
       </c>
@@ -4932,7 +5891,7 @@
         <v>8</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>129</v>
       </c>
       <c r="H74">
@@ -4963,7 +5922,7 @@
         <v>133</v>
       </c>
       <c r="S74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W74">
@@ -4976,11 +5935,24 @@
         <v>125</v>
       </c>
       <c r="Z74" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB74">
+        <v>461</v>
+      </c>
+      <c r="AC74">
+        <v>91</v>
+      </c>
+      <c r="AD74">
+        <v>133</v>
+      </c>
+      <c r="AE74" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>571</v>
       </c>
@@ -4988,7 +5960,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>132</v>
       </c>
       <c r="H75">
@@ -5019,7 +5991,7 @@
         <v>133</v>
       </c>
       <c r="S75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W75">
@@ -5032,11 +6004,24 @@
         <v>133</v>
       </c>
       <c r="Z75" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB75">
+        <v>465</v>
+      </c>
+      <c r="AC75">
+        <v>92</v>
+      </c>
+      <c r="AD75">
+        <v>133</v>
+      </c>
+      <c r="AE75" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>587</v>
       </c>
@@ -5044,7 +6029,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>134</v>
       </c>
       <c r="H76">
@@ -5075,7 +6060,7 @@
         <v>133</v>
       </c>
       <c r="S76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W76">
@@ -5088,11 +6073,24 @@
         <v>133</v>
       </c>
       <c r="Z76" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB76">
+        <v>466</v>
+      </c>
+      <c r="AC76">
+        <v>94</v>
+      </c>
+      <c r="AD76">
+        <v>133</v>
+      </c>
+      <c r="AE76" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>606</v>
       </c>
@@ -5100,7 +6098,7 @@
         <v>-1</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>133</v>
       </c>
       <c r="H77">
@@ -5131,7 +6129,7 @@
         <v>133</v>
       </c>
       <c r="S77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W77">
@@ -5144,11 +6142,24 @@
         <v>133</v>
       </c>
       <c r="Z77" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB77">
+        <v>477</v>
+      </c>
+      <c r="AC77">
+        <v>95</v>
+      </c>
+      <c r="AD77">
+        <v>133</v>
+      </c>
+      <c r="AE77" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>608</v>
       </c>
@@ -5156,7 +6167,7 @@
         <v>6</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>139</v>
       </c>
       <c r="H78">
@@ -5187,7 +6198,7 @@
         <v>141</v>
       </c>
       <c r="S78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W78">
@@ -5200,11 +6211,24 @@
         <v>133</v>
       </c>
       <c r="Z78" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB78">
+        <v>478</v>
+      </c>
+      <c r="AC78">
+        <v>97</v>
+      </c>
+      <c r="AD78">
+        <v>133</v>
+      </c>
+      <c r="AE78" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>650</v>
       </c>
@@ -5212,7 +6236,7 @@
         <v>2</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>141</v>
       </c>
       <c r="H79">
@@ -5243,7 +6267,7 @@
         <v>141</v>
       </c>
       <c r="S79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W79">
@@ -5256,11 +6280,24 @@
         <v>133</v>
       </c>
       <c r="Z79" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB79">
+        <v>491</v>
+      </c>
+      <c r="AC79">
+        <v>97</v>
+      </c>
+      <c r="AD79">
+        <v>141</v>
+      </c>
+      <c r="AE79" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>651</v>
       </c>
@@ -5268,7 +6305,7 @@
         <v>16</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>157</v>
       </c>
       <c r="H80">
@@ -5299,7 +6336,7 @@
         <v>141</v>
       </c>
       <c r="S80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W80">
@@ -5312,11 +6349,24 @@
         <v>141</v>
       </c>
       <c r="Z80" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB80">
+        <v>493</v>
+      </c>
+      <c r="AC80">
+        <v>103</v>
+      </c>
+      <c r="AD80">
+        <v>141</v>
+      </c>
+      <c r="AE80" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>657</v>
       </c>
@@ -5324,7 +6374,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>161</v>
       </c>
       <c r="H81">
@@ -5355,7 +6405,7 @@
         <v>141</v>
       </c>
       <c r="S81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W81">
@@ -5368,11 +6418,24 @@
         <v>141</v>
       </c>
       <c r="Z81" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB81">
+        <v>494</v>
+      </c>
+      <c r="AC81">
+        <v>107</v>
+      </c>
+      <c r="AD81">
+        <v>141</v>
+      </c>
+      <c r="AE81" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>658</v>
       </c>
@@ -5380,7 +6443,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>177</v>
       </c>
       <c r="H82">
@@ -5411,7 +6474,7 @@
         <v>141</v>
       </c>
       <c r="S82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W82">
@@ -5424,11 +6487,24 @@
         <v>141</v>
       </c>
       <c r="Z82" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB82">
+        <v>501</v>
+      </c>
+      <c r="AC82">
+        <v>113</v>
+      </c>
+      <c r="AD82">
+        <v>141</v>
+      </c>
+      <c r="AE82" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>666</v>
       </c>
@@ -5436,7 +6512,7 @@
         <v>-20</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>157</v>
       </c>
       <c r="H83">
@@ -5467,7 +6543,7 @@
         <v>141</v>
       </c>
       <c r="S83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W83">
@@ -5480,11 +6556,24 @@
         <v>141</v>
       </c>
       <c r="Z83" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB83">
+        <v>511</v>
+      </c>
+      <c r="AC83">
+        <v>115</v>
+      </c>
+      <c r="AD83">
+        <v>141</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>686</v>
       </c>
@@ -5492,7 +6581,7 @@
         <v>-1</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>156</v>
       </c>
       <c r="H84">
@@ -5523,7 +6612,7 @@
         <v>141</v>
       </c>
       <c r="S84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W84">
@@ -5536,11 +6625,24 @@
         <v>141</v>
       </c>
       <c r="Z84" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB84">
+        <v>512</v>
+      </c>
+      <c r="AC84">
+        <v>116</v>
+      </c>
+      <c r="AD84">
+        <v>141</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>688</v>
       </c>
@@ -5548,7 +6650,7 @@
         <v>-1</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>155</v>
       </c>
       <c r="H85">
@@ -5579,7 +6681,7 @@
         <v>141</v>
       </c>
       <c r="S85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W85">
@@ -5592,11 +6694,24 @@
         <v>141</v>
       </c>
       <c r="Z85" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB85">
+        <v>534</v>
+      </c>
+      <c r="AC85">
+        <v>117</v>
+      </c>
+      <c r="AD85">
+        <v>141</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>690</v>
       </c>
@@ -5604,7 +6719,7 @@
         <v>-1</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>154</v>
       </c>
       <c r="H86">
@@ -5635,7 +6750,7 @@
         <v>141</v>
       </c>
       <c r="S86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W86">
@@ -5648,11 +6763,24 @@
         <v>141</v>
       </c>
       <c r="Z86" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB86">
+        <v>535</v>
+      </c>
+      <c r="AC86">
+        <v>119</v>
+      </c>
+      <c r="AD86">
+        <v>141</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>691</v>
       </c>
@@ -5660,7 +6788,7 @@
         <v>-3</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>151</v>
       </c>
       <c r="H87">
@@ -5691,7 +6819,7 @@
         <v>141</v>
       </c>
       <c r="S87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W87">
@@ -5704,11 +6832,24 @@
         <v>141</v>
       </c>
       <c r="Z87" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB87">
+        <v>540</v>
+      </c>
+      <c r="AC87">
+        <v>118</v>
+      </c>
+      <c r="AD87">
+        <v>141</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>692</v>
       </c>
@@ -5716,7 +6857,7 @@
         <v>-2</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>149</v>
       </c>
       <c r="H88">
@@ -5747,7 +6888,7 @@
         <v>141</v>
       </c>
       <c r="S88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U88">
@@ -5767,11 +6908,24 @@
         <v>141</v>
       </c>
       <c r="Z88" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB88">
+        <v>547</v>
+      </c>
+      <c r="AC88">
+        <v>119</v>
+      </c>
+      <c r="AD88">
+        <v>141</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>693</v>
       </c>
@@ -5779,7 +6933,7 @@
         <v>-5</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>144</v>
       </c>
       <c r="H89">
@@ -5810,7 +6964,7 @@
         <v>149</v>
       </c>
       <c r="S89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W89">
@@ -5823,11 +6977,24 @@
         <v>141</v>
       </c>
       <c r="Z89" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB89">
+        <v>554</v>
+      </c>
+      <c r="AC89">
+        <v>125</v>
+      </c>
+      <c r="AD89">
+        <v>141</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>694</v>
       </c>
@@ -5835,7 +7002,7 @@
         <v>-9</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>135</v>
       </c>
       <c r="H90">
@@ -5866,7 +7033,7 @@
         <v>157</v>
       </c>
       <c r="S90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W90">
@@ -5879,11 +7046,24 @@
         <v>141</v>
       </c>
       <c r="Z90" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB90">
+        <v>559</v>
+      </c>
+      <c r="AC90">
+        <v>126</v>
+      </c>
+      <c r="AD90">
+        <v>141</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>696</v>
       </c>
@@ -5891,7 +7071,7 @@
         <v>-11</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>124</v>
       </c>
       <c r="H91">
@@ -5922,7 +7102,7 @@
         <v>157</v>
       </c>
       <c r="S91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W91">
@@ -5935,11 +7115,24 @@
         <v>141</v>
       </c>
       <c r="Z91" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB91">
+        <v>560</v>
+      </c>
+      <c r="AC91">
+        <v>128</v>
+      </c>
+      <c r="AD91">
+        <v>141</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>697</v>
       </c>
@@ -5947,7 +7140,7 @@
         <v>-5</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>119</v>
       </c>
       <c r="H92">
@@ -5978,7 +7171,7 @@
         <v>165</v>
       </c>
       <c r="S92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W92">
@@ -5991,11 +7184,24 @@
         <v>141</v>
       </c>
       <c r="Z92" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB92">
+        <v>563</v>
+      </c>
+      <c r="AC92">
+        <v>138</v>
+      </c>
+      <c r="AD92">
+        <v>141</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>698</v>
       </c>
@@ -6003,7 +7209,7 @@
         <v>-2</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>117</v>
       </c>
       <c r="H93">
@@ -6034,7 +7240,7 @@
         <v>173</v>
       </c>
       <c r="S93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W93">
@@ -6047,11 +7253,24 @@
         <v>141</v>
       </c>
       <c r="Z93" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB93">
+        <v>588</v>
+      </c>
+      <c r="AC93">
+        <v>140</v>
+      </c>
+      <c r="AD93">
+        <v>141</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>699</v>
       </c>
@@ -6059,7 +7278,7 @@
         <v>4</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>121</v>
       </c>
       <c r="H94">
@@ -6090,7 +7309,7 @@
         <v>181</v>
       </c>
       <c r="S94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W94">
@@ -6103,11 +7322,24 @@
         <v>141</v>
       </c>
       <c r="Z94" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB94">
+        <v>603</v>
+      </c>
+      <c r="AC94">
+        <v>140</v>
+      </c>
+      <c r="AD94">
+        <v>149</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>700</v>
       </c>
@@ -6115,7 +7347,7 @@
         <v>8</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>129</v>
       </c>
       <c r="H95">
@@ -6146,7 +7378,7 @@
         <v>189</v>
       </c>
       <c r="S95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W95">
@@ -6159,11 +7391,24 @@
         <v>149</v>
       </c>
       <c r="Z95" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB95">
+        <v>607</v>
+      </c>
+      <c r="AC95">
+        <v>139</v>
+      </c>
+      <c r="AD95">
+        <v>157</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>702</v>
       </c>
@@ -6171,7 +7416,7 @@
         <v>-6</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>123</v>
       </c>
       <c r="H96">
@@ -6202,7 +7447,7 @@
         <v>189</v>
       </c>
       <c r="S96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W96">
@@ -6215,11 +7460,24 @@
         <v>157</v>
       </c>
       <c r="Z96" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB96">
+        <v>610</v>
+      </c>
+      <c r="AC96">
+        <v>139</v>
+      </c>
+      <c r="AD96">
+        <v>165</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>708</v>
       </c>
@@ -6227,7 +7485,7 @@
         <v>6</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>129</v>
       </c>
       <c r="H97">
@@ -6258,7 +7516,7 @@
         <v>189</v>
       </c>
       <c r="S97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W97">
@@ -6271,11 +7529,24 @@
         <v>165</v>
       </c>
       <c r="Z97" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB97">
+        <v>612</v>
+      </c>
+      <c r="AC97">
+        <v>139</v>
+      </c>
+      <c r="AD97">
+        <v>173</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>713</v>
       </c>
@@ -6283,7 +7554,7 @@
         <v>-2</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>127</v>
       </c>
       <c r="H98">
@@ -6314,7 +7585,7 @@
         <v>204</v>
       </c>
       <c r="S98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W98">
@@ -6327,11 +7598,24 @@
         <v>173</v>
       </c>
       <c r="Z98" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB98">
+        <v>615</v>
+      </c>
+      <c r="AC98">
+        <v>139</v>
+      </c>
+      <c r="AD98">
+        <v>181</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>716</v>
       </c>
@@ -6339,7 +7623,7 @@
         <v>-1</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>126</v>
       </c>
       <c r="H99">
@@ -6370,7 +7654,7 @@
         <v>204</v>
       </c>
       <c r="S99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W99">
@@ -6383,11 +7667,24 @@
         <v>181</v>
       </c>
       <c r="Z99" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB99">
+        <v>617</v>
+      </c>
+      <c r="AC99">
+        <v>139</v>
+      </c>
+      <c r="AD99">
+        <v>189</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>726</v>
       </c>
@@ -6395,7 +7692,7 @@
         <v>8</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>134</v>
       </c>
       <c r="H100">
@@ -6426,7 +7723,7 @@
         <v>204</v>
       </c>
       <c r="S100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W100">
@@ -6439,11 +7736,24 @@
         <v>189</v>
       </c>
       <c r="Z100" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB100">
+        <v>650</v>
+      </c>
+      <c r="AC100">
+        <v>141</v>
+      </c>
+      <c r="AD100">
+        <v>189</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>727</v>
       </c>
@@ -6451,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>134</v>
       </c>
       <c r="H101">
@@ -6482,7 +7792,7 @@
         <v>204</v>
       </c>
       <c r="S101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W101">
@@ -6495,11 +7805,24 @@
         <v>189</v>
       </c>
       <c r="Z101" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB101">
+        <v>651</v>
+      </c>
+      <c r="AC101">
+        <v>157</v>
+      </c>
+      <c r="AD101">
+        <v>189</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>729</v>
       </c>
@@ -6507,7 +7830,7 @@
         <v>7</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>141</v>
       </c>
       <c r="H102">
@@ -6538,7 +7861,7 @@
         <v>196</v>
       </c>
       <c r="S102" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W102">
@@ -6551,11 +7874,24 @@
         <v>189</v>
       </c>
       <c r="Z102" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB102">
+        <v>654</v>
+      </c>
+      <c r="AC102">
+        <v>163</v>
+      </c>
+      <c r="AD102">
+        <v>189</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>730</v>
       </c>
@@ -6563,7 +7899,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>142</v>
       </c>
       <c r="H103">
@@ -6594,7 +7930,7 @@
         <v>188</v>
       </c>
       <c r="S103" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W103">
@@ -6607,11 +7943,24 @@
         <v>189</v>
       </c>
       <c r="Z103" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB103">
+        <v>655</v>
+      </c>
+      <c r="AC103">
+        <v>163</v>
+      </c>
+      <c r="AD103">
+        <v>204</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>741</v>
       </c>
@@ -6619,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>143</v>
       </c>
       <c r="H104">
@@ -6650,7 +7999,7 @@
         <v>188</v>
       </c>
       <c r="S104" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W104">
@@ -6663,11 +8012,24 @@
         <v>204</v>
       </c>
       <c r="Z104" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB104">
+        <v>658</v>
+      </c>
+      <c r="AC104">
+        <v>183</v>
+      </c>
+      <c r="AD104">
+        <v>204</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>767</v>
       </c>
@@ -6675,7 +8037,7 @@
         <v>2</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>145</v>
       </c>
       <c r="H105">
@@ -6706,7 +8068,7 @@
         <v>188</v>
       </c>
       <c r="S105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W105">
@@ -6719,11 +8081,24 @@
         <v>204</v>
       </c>
       <c r="Z105" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB105">
+        <v>666</v>
+      </c>
+      <c r="AC105">
+        <v>171</v>
+      </c>
+      <c r="AD105">
+        <v>204</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>768</v>
       </c>
@@ -6731,7 +8106,7 @@
         <v>16</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>161</v>
       </c>
       <c r="H106">
@@ -6762,7 +8137,7 @@
         <v>188</v>
       </c>
       <c r="S106" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W106">
@@ -6775,11 +8150,24 @@
         <v>204</v>
       </c>
       <c r="Z106" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB106">
+        <v>667</v>
+      </c>
+      <c r="AC106">
+        <v>163</v>
+      </c>
+      <c r="AD106">
+        <v>204</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>772</v>
       </c>
@@ -6787,7 +8175,7 @@
         <v>8</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>169</v>
       </c>
       <c r="H107">
@@ -6818,7 +8206,7 @@
         <v>188</v>
       </c>
       <c r="S107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W107">
@@ -6831,11 +8219,24 @@
         <v>204</v>
       </c>
       <c r="Z107" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB107">
+        <v>673</v>
+      </c>
+      <c r="AC107">
+        <v>163</v>
+      </c>
+      <c r="AD107">
+        <v>196</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>775</v>
       </c>
@@ -6843,7 +8244,7 @@
         <v>2</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>171</v>
       </c>
       <c r="H108">
@@ -6874,7 +8275,7 @@
         <v>188</v>
       </c>
       <c r="S108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W108">
@@ -6887,11 +8288,24 @@
         <v>196</v>
       </c>
       <c r="Z108" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB108">
+        <v>683</v>
+      </c>
+      <c r="AC108">
+        <v>163</v>
+      </c>
+      <c r="AD108">
+        <v>188</v>
+      </c>
+      <c r="AE108" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>776</v>
       </c>
@@ -6899,7 +8313,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>173</v>
       </c>
       <c r="H109">
@@ -6930,7 +8344,7 @@
         <v>188</v>
       </c>
       <c r="S109" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W109">
@@ -6943,11 +8357,24 @@
         <v>188</v>
       </c>
       <c r="Z109" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB109">
+        <v>686</v>
+      </c>
+      <c r="AC109">
+        <v>162</v>
+      </c>
+      <c r="AD109">
+        <v>188</v>
+      </c>
+      <c r="AE109" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>778</v>
       </c>
@@ -6955,7 +8382,7 @@
         <v>6</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>179</v>
       </c>
       <c r="H110">
@@ -6986,7 +8413,7 @@
         <v>188</v>
       </c>
       <c r="S110" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W110">
@@ -6999,11 +8426,24 @@
         <v>188</v>
       </c>
       <c r="Z110" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB110">
+        <v>688</v>
+      </c>
+      <c r="AC110">
+        <v>161</v>
+      </c>
+      <c r="AD110">
+        <v>188</v>
+      </c>
+      <c r="AE110" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>780</v>
       </c>
@@ -7011,7 +8451,7 @@
         <v>-8</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>171</v>
       </c>
       <c r="H111">
@@ -7042,7 +8482,7 @@
         <v>188</v>
       </c>
       <c r="S111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W111">
@@ -7055,11 +8495,24 @@
         <v>188</v>
       </c>
       <c r="Z111" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB111">
+        <v>690</v>
+      </c>
+      <c r="AC111">
+        <v>160</v>
+      </c>
+      <c r="AD111">
+        <v>188</v>
+      </c>
+      <c r="AE111" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>820</v>
       </c>
@@ -7067,7 +8520,7 @@
         <v>16</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>187</v>
       </c>
       <c r="H112">
@@ -7098,7 +8551,7 @@
         <v>188</v>
       </c>
       <c r="S112" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W112">
@@ -7111,11 +8564,24 @@
         <v>188</v>
       </c>
       <c r="Z112" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB112">
+        <v>691</v>
+      </c>
+      <c r="AC112">
+        <v>159</v>
+      </c>
+      <c r="AD112">
+        <v>188</v>
+      </c>
+      <c r="AE112" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>822</v>
       </c>
@@ -7123,7 +8589,7 @@
         <v>6</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>193</v>
       </c>
       <c r="H113">
@@ -7154,7 +8620,7 @@
         <v>188</v>
       </c>
       <c r="S113" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W113">
@@ -7167,11 +8633,24 @@
         <v>188</v>
       </c>
       <c r="Z113" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB113">
+        <v>692</v>
+      </c>
+      <c r="AC113">
+        <v>157</v>
+      </c>
+      <c r="AD113">
+        <v>188</v>
+      </c>
+      <c r="AE113" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>824</v>
       </c>
@@ -7179,7 +8658,7 @@
         <v>2</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>195</v>
       </c>
       <c r="H114">
@@ -7210,7 +8689,7 @@
         <v>188</v>
       </c>
       <c r="S114" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W114">
@@ -7223,11 +8702,24 @@
         <v>188</v>
       </c>
       <c r="Z114" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB114">
+        <v>693</v>
+      </c>
+      <c r="AC114">
+        <v>154</v>
+      </c>
+      <c r="AD114">
+        <v>188</v>
+      </c>
+      <c r="AE114" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>825</v>
       </c>
@@ -7235,7 +8727,7 @@
         <v>13</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>208</v>
       </c>
       <c r="H115">
@@ -7266,7 +8758,7 @@
         <v>188</v>
       </c>
       <c r="S115" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W115">
@@ -7279,11 +8771,24 @@
         <v>188</v>
       </c>
       <c r="Z115" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB115">
+        <v>694</v>
+      </c>
+      <c r="AC115">
+        <v>142</v>
+      </c>
+      <c r="AD115">
+        <v>188</v>
+      </c>
+      <c r="AE115" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>827</v>
       </c>
@@ -7291,7 +8796,7 @@
         <v>4</v>
       </c>
       <c r="C116" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>212</v>
       </c>
       <c r="H116">
@@ -7322,7 +8827,7 @@
         <v>188</v>
       </c>
       <c r="S116" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W116">
@@ -7335,11 +8840,24 @@
         <v>188</v>
       </c>
       <c r="Z116" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB116">
+        <v>695</v>
+      </c>
+      <c r="AC116">
+        <v>141</v>
+      </c>
+      <c r="AD116">
+        <v>188</v>
+      </c>
+      <c r="AE116" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>829</v>
       </c>
@@ -7347,7 +8865,7 @@
         <v>-1</v>
       </c>
       <c r="C117" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>211</v>
       </c>
       <c r="H117">
@@ -7378,7 +8896,7 @@
         <v>188</v>
       </c>
       <c r="S117" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W117">
@@ -7391,11 +8909,24 @@
         <v>188</v>
       </c>
       <c r="Z117" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB117">
+        <v>696</v>
+      </c>
+      <c r="AC117">
+        <v>136</v>
+      </c>
+      <c r="AD117">
+        <v>188</v>
+      </c>
+      <c r="AE117" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>833</v>
       </c>
@@ -7403,7 +8934,7 @@
         <v>-8</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>203</v>
       </c>
       <c r="H118">
@@ -7434,7 +8965,7 @@
         <v>188</v>
       </c>
       <c r="S118" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W118">
@@ -7447,11 +8978,24 @@
         <v>188</v>
       </c>
       <c r="Z118" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB118">
+        <v>697</v>
+      </c>
+      <c r="AC118">
+        <v>125</v>
+      </c>
+      <c r="AD118">
+        <v>188</v>
+      </c>
+      <c r="AE118" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>834</v>
       </c>
@@ -7459,7 +9003,7 @@
         <v>-4</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>199</v>
       </c>
       <c r="H119">
@@ -7490,7 +9034,7 @@
         <v>188</v>
       </c>
       <c r="S119" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W119">
@@ -7503,11 +9047,24 @@
         <v>188</v>
       </c>
       <c r="Z119" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB119">
+        <v>698</v>
+      </c>
+      <c r="AC119">
+        <v>123</v>
+      </c>
+      <c r="AD119">
+        <v>188</v>
+      </c>
+      <c r="AE119" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>835</v>
       </c>
@@ -7515,7 +9072,7 @@
         <v>-4</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>195</v>
       </c>
       <c r="H120">
@@ -7546,7 +9103,7 @@
         <v>188</v>
       </c>
       <c r="S120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W120">
@@ -7559,11 +9116,24 @@
         <v>188</v>
       </c>
       <c r="Z120" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB120">
+        <v>699</v>
+      </c>
+      <c r="AC120">
+        <v>119</v>
+      </c>
+      <c r="AD120">
+        <v>188</v>
+      </c>
+      <c r="AE120" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>858</v>
       </c>
@@ -7571,7 +9141,7 @@
         <v>-2</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>193</v>
       </c>
       <c r="H121">
@@ -7602,7 +9172,7 @@
         <v>188</v>
       </c>
       <c r="S121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W121">
@@ -7615,11 +9185,24 @@
         <v>188</v>
       </c>
       <c r="Z121" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB121">
+        <v>700</v>
+      </c>
+      <c r="AC121">
+        <v>135</v>
+      </c>
+      <c r="AD121">
+        <v>188</v>
+      </c>
+      <c r="AE121" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>868</v>
       </c>
@@ -7627,7 +9210,7 @@
         <v>-4</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>189</v>
       </c>
       <c r="H122">
@@ -7658,7 +9241,7 @@
         <v>188</v>
       </c>
       <c r="S122" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W122">
@@ -7671,11 +9254,24 @@
         <v>188</v>
       </c>
       <c r="Z122" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB122">
+        <v>702</v>
+      </c>
+      <c r="AC122">
+        <v>129</v>
+      </c>
+      <c r="AD122">
+        <v>188</v>
+      </c>
+      <c r="AE122" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>869</v>
       </c>
@@ -7683,7 +9279,7 @@
         <v>-4</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>185</v>
       </c>
       <c r="H123">
@@ -7714,7 +9310,7 @@
         <v>188</v>
       </c>
       <c r="S123" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W123">
@@ -7727,11 +9323,24 @@
         <v>188</v>
       </c>
       <c r="Z123" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB123">
+        <v>713</v>
+      </c>
+      <c r="AC123">
+        <v>128</v>
+      </c>
+      <c r="AD123">
+        <v>188</v>
+      </c>
+      <c r="AE123" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>870</v>
       </c>
@@ -7739,7 +9348,7 @@
         <v>-4</v>
       </c>
       <c r="C124" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>181</v>
       </c>
       <c r="H124">
@@ -7770,7 +9379,7 @@
         <v>188</v>
       </c>
       <c r="S124" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W124">
@@ -7783,11 +9392,24 @@
         <v>188</v>
       </c>
       <c r="Z124" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB124">
+        <v>714</v>
+      </c>
+      <c r="AC124">
+        <v>127</v>
+      </c>
+      <c r="AD124">
+        <v>188</v>
+      </c>
+      <c r="AE124" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>871</v>
       </c>
@@ -7795,7 +9417,7 @@
         <v>-2</v>
       </c>
       <c r="C125" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>179</v>
       </c>
       <c r="H125">
@@ -7826,7 +9448,7 @@
         <v>188</v>
       </c>
       <c r="S125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W125">
@@ -7839,11 +9461,24 @@
         <v>188</v>
       </c>
       <c r="Z125" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB125">
+        <v>716</v>
+      </c>
+      <c r="AC125">
+        <v>126</v>
+      </c>
+      <c r="AD125">
+        <v>188</v>
+      </c>
+      <c r="AE125" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>873</v>
       </c>
@@ -7851,7 +9486,7 @@
         <v>-2</v>
       </c>
       <c r="C126" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>177</v>
       </c>
       <c r="H126">
@@ -7882,7 +9517,7 @@
         <v>188</v>
       </c>
       <c r="S126" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U126">
@@ -7902,11 +9537,24 @@
         <v>188</v>
       </c>
       <c r="Z126" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB126">
+        <v>717</v>
+      </c>
+      <c r="AC126">
+        <v>128</v>
+      </c>
+      <c r="AD126">
+        <v>188</v>
+      </c>
+      <c r="AE126" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>874</v>
       </c>
@@ -7914,7 +9562,7 @@
         <v>-2</v>
       </c>
       <c r="C127" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>175</v>
       </c>
       <c r="H127">
@@ -7945,7 +9593,7 @@
         <v>188</v>
       </c>
       <c r="S127" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W127">
@@ -7958,11 +9606,24 @@
         <v>188</v>
       </c>
       <c r="Z127" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB127">
+        <v>718</v>
+      </c>
+      <c r="AC127">
+        <v>130</v>
+      </c>
+      <c r="AD127">
+        <v>188</v>
+      </c>
+      <c r="AE127" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>875</v>
       </c>
@@ -7970,7 +9631,7 @@
         <v>-8</v>
       </c>
       <c r="C128" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>167</v>
       </c>
       <c r="H128">
@@ -8001,7 +9662,7 @@
         <v>188</v>
       </c>
       <c r="S128" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W128">
@@ -8014,11 +9675,24 @@
         <v>188</v>
       </c>
       <c r="Z128" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB128">
+        <v>724</v>
+      </c>
+      <c r="AC128">
+        <v>136</v>
+      </c>
+      <c r="AD128">
+        <v>188</v>
+      </c>
+      <c r="AE128" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>876</v>
       </c>
@@ -8026,7 +9700,7 @@
         <v>-2</v>
       </c>
       <c r="C129" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>165</v>
       </c>
       <c r="H129">
@@ -8057,7 +9731,7 @@
         <v>188</v>
       </c>
       <c r="S129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W129">
@@ -8070,11 +9744,24 @@
         <v>188</v>
       </c>
       <c r="Z129" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB129">
+        <v>726</v>
+      </c>
+      <c r="AC129">
+        <v>142</v>
+      </c>
+      <c r="AD129">
+        <v>188</v>
+      </c>
+      <c r="AE129" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>877</v>
       </c>
@@ -8082,7 +9769,7 @@
         <v>-4</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>161</v>
       </c>
       <c r="H130">
@@ -8113,7 +9800,7 @@
         <v>188</v>
       </c>
       <c r="S130" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W130">
@@ -8126,11 +9813,24 @@
         <v>188</v>
       </c>
       <c r="Z130" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB130">
+        <v>727</v>
+      </c>
+      <c r="AC130">
+        <v>144</v>
+      </c>
+      <c r="AD130">
+        <v>188</v>
+      </c>
+      <c r="AE130" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>878</v>
       </c>
@@ -8138,7 +9838,7 @@
         <v>-14</v>
       </c>
       <c r="C131" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>147</v>
       </c>
       <c r="H131">
@@ -8169,7 +9869,7 @@
         <v>188</v>
       </c>
       <c r="S131" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W131">
@@ -8182,11 +9882,24 @@
         <v>188</v>
       </c>
       <c r="Z131" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="AB131">
+        <v>729</v>
+      </c>
+      <c r="AC131">
+        <v>149</v>
+      </c>
+      <c r="AD131">
+        <v>188</v>
+      </c>
+      <c r="AE131" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>880</v>
       </c>
@@ -8194,7 +9907,7 @@
         <v>8</v>
       </c>
       <c r="C132" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>155</v>
       </c>
       <c r="H132">
@@ -8225,7 +9938,7 @@
         <v>196</v>
       </c>
       <c r="S132" t="str">
-        <f t="shared" ref="S132:S165" si="7">IF(Q132&gt;=R132, "BLOCKED", "")</f>
+        <f t="shared" ref="S132:S165" si="9">IF(Q132&gt;=R132, "BLOCKED", "")</f>
         <v/>
       </c>
       <c r="W132">
@@ -8238,11 +9951,24 @@
         <v>188</v>
       </c>
       <c r="Z132" t="str">
-        <f t="shared" ref="Z132:Z175" si="8">IF(X132&gt;=Y132, "BLOCKED", "-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Z132:Z175" si="10">IF(X132&gt;=Y132, "BLOCKED", "-")</f>
+        <v>-</v>
+      </c>
+      <c r="AB132">
+        <v>763</v>
+      </c>
+      <c r="AC132">
+        <v>151</v>
+      </c>
+      <c r="AD132">
+        <v>188</v>
+      </c>
+      <c r="AE132" t="str">
+        <f t="shared" ref="AE132:AE174" si="11">IF(AC132&gt;=AD132, "BLOCKED", "-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>883</v>
       </c>
@@ -8250,7 +9976,7 @@
         <v>-6</v>
       </c>
       <c r="C133" s="1">
-        <f t="shared" ref="C133:C143" si="9">C132+B133</f>
+        <f t="shared" ref="C133:C143" si="12">C132+B133</f>
         <v>149</v>
       </c>
       <c r="H133">
@@ -8281,7 +10007,7 @@
         <v>204</v>
       </c>
       <c r="S133" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W133">
@@ -8294,11 +10020,24 @@
         <v>188</v>
       </c>
       <c r="Z133" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB133">
+        <v>764</v>
+      </c>
+      <c r="AC133">
+        <v>153</v>
+      </c>
+      <c r="AD133">
+        <v>188</v>
+      </c>
+      <c r="AE133" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>884</v>
       </c>
@@ -8306,7 +10045,7 @@
         <v>-2</v>
       </c>
       <c r="C134" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>147</v>
       </c>
       <c r="H134">
@@ -8337,7 +10076,7 @@
         <v>204</v>
       </c>
       <c r="S134" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W134">
@@ -8350,11 +10089,24 @@
         <v>188</v>
       </c>
       <c r="Z134" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB134">
+        <v>768</v>
+      </c>
+      <c r="AC134">
+        <v>161</v>
+      </c>
+      <c r="AD134">
+        <v>188</v>
+      </c>
+      <c r="AE134" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>885</v>
       </c>
@@ -8362,7 +10114,7 @@
         <v>-4</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>143</v>
       </c>
       <c r="H135">
@@ -8393,7 +10145,7 @@
         <v>204</v>
       </c>
       <c r="S135" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W135">
@@ -8406,11 +10158,24 @@
         <v>188</v>
       </c>
       <c r="Z135" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB135">
+        <v>769</v>
+      </c>
+      <c r="AC135">
+        <v>177</v>
+      </c>
+      <c r="AD135">
+        <v>188</v>
+      </c>
+      <c r="AE135" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>938</v>
       </c>
@@ -8418,7 +10183,7 @@
         <v>18</v>
       </c>
       <c r="C136" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>161</v>
       </c>
       <c r="H136">
@@ -8449,7 +10214,7 @@
         <v>204</v>
       </c>
       <c r="S136" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>BLOCKED</v>
       </c>
       <c r="T136">
@@ -8466,11 +10231,24 @@
         <v>188</v>
       </c>
       <c r="Z136" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB136">
+        <v>772</v>
+      </c>
+      <c r="AC136">
+        <v>181</v>
+      </c>
+      <c r="AD136">
+        <v>188</v>
+      </c>
+      <c r="AE136" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>953</v>
       </c>
@@ -8478,7 +10256,7 @@
         <v>12</v>
       </c>
       <c r="C137" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>173</v>
       </c>
       <c r="H137">
@@ -8509,7 +10287,7 @@
         <v>204</v>
       </c>
       <c r="S137" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>BLOCKED</v>
       </c>
       <c r="W137">
@@ -8522,11 +10300,24 @@
         <v>188</v>
       </c>
       <c r="Z137" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB137">
+        <v>773</v>
+      </c>
+      <c r="AC137">
+        <v>185</v>
+      </c>
+      <c r="AD137">
+        <v>188</v>
+      </c>
+      <c r="AE137" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>956</v>
       </c>
@@ -8534,7 +10325,7 @@
         <v>-2</v>
       </c>
       <c r="C138" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>171</v>
       </c>
       <c r="H138">
@@ -8565,7 +10356,7 @@
         <v>212</v>
       </c>
       <c r="S138" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>BLOCKED</v>
       </c>
       <c r="W138">
@@ -8578,11 +10369,24 @@
         <v>188</v>
       </c>
       <c r="Z138" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB138">
+        <v>781</v>
+      </c>
+      <c r="AC138">
+        <v>177</v>
+      </c>
+      <c r="AD138">
+        <v>188</v>
+      </c>
+      <c r="AE138" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>958</v>
       </c>
@@ -8590,7 +10394,7 @@
         <v>-4</v>
       </c>
       <c r="C139" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>167</v>
       </c>
       <c r="H139">
@@ -8621,7 +10425,7 @@
         <v>212</v>
       </c>
       <c r="S139" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W139">
@@ -8634,11 +10438,24 @@
         <v>188</v>
       </c>
       <c r="Z139" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB139">
+        <v>812</v>
+      </c>
+      <c r="AC139">
+        <v>178</v>
+      </c>
+      <c r="AD139">
+        <v>188</v>
+      </c>
+      <c r="AE139" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>959</v>
       </c>
@@ -8646,7 +10463,7 @@
         <v>-4</v>
       </c>
       <c r="C140" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>163</v>
       </c>
       <c r="H140">
@@ -8677,7 +10494,7 @@
         <v>212</v>
       </c>
       <c r="S140" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W140">
@@ -8690,11 +10507,24 @@
         <v>188</v>
       </c>
       <c r="Z140" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB140">
+        <v>813</v>
+      </c>
+      <c r="AC140">
+        <v>180</v>
+      </c>
+      <c r="AD140">
+        <v>188</v>
+      </c>
+      <c r="AE140" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>960</v>
       </c>
@@ -8702,7 +10532,7 @@
         <v>-8</v>
       </c>
       <c r="C141" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>155</v>
       </c>
       <c r="H141">
@@ -8733,7 +10563,7 @@
         <v>212</v>
       </c>
       <c r="S141" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W141">
@@ -8746,11 +10576,24 @@
         <v>188</v>
       </c>
       <c r="Z141" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB141">
+        <v>817</v>
+      </c>
+      <c r="AC141">
+        <v>180</v>
+      </c>
+      <c r="AD141">
+        <v>196</v>
+      </c>
+      <c r="AE141" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>961</v>
       </c>
@@ -8758,7 +10601,7 @@
         <v>-4</v>
       </c>
       <c r="C142" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>151</v>
       </c>
       <c r="H142">
@@ -8789,7 +10632,7 @@
         <v>212</v>
       </c>
       <c r="S142" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W142">
@@ -8802,11 +10645,24 @@
         <v>196</v>
       </c>
       <c r="Z142" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB142">
+        <v>820</v>
+      </c>
+      <c r="AC142">
+        <v>196</v>
+      </c>
+      <c r="AD142">
+        <v>204</v>
+      </c>
+      <c r="AE142" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>963</v>
       </c>
@@ -8814,7 +10670,7 @@
         <v>-4</v>
       </c>
       <c r="C143" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>147</v>
       </c>
       <c r="H143">
@@ -8845,7 +10701,7 @@
         <v>212</v>
       </c>
       <c r="S143" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U143">
@@ -8865,11 +10721,28 @@
         <v>204</v>
       </c>
       <c r="Z143" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB143">
+        <v>825</v>
+      </c>
+      <c r="AC143">
+        <v>204</v>
+      </c>
+      <c r="AD143">
+        <v>204</v>
+      </c>
+      <c r="AE143" t="str">
+        <f t="shared" si="11"/>
+        <v>BLOCKED</v>
+      </c>
+      <c r="AF143">
+        <f>AB147-AB143</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="H144">
         <v>829</v>
       </c>
@@ -8898,7 +10771,7 @@
         <v>212</v>
       </c>
       <c r="S144" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W144">
@@ -8911,15 +10784,28 @@
         <v>204</v>
       </c>
       <c r="Z144" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>BLOCKED</v>
       </c>
       <c r="AA144">
         <f>W148-W144</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="AB144">
+        <v>826</v>
+      </c>
+      <c r="AC144">
+        <v>208</v>
+      </c>
+      <c r="AD144">
+        <v>204</v>
+      </c>
+      <c r="AE144" t="str">
+        <f t="shared" si="11"/>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="145" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H145">
         <v>833</v>
       </c>
@@ -8948,7 +10834,7 @@
         <v>227</v>
       </c>
       <c r="S145" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W145">
@@ -8961,11 +10847,24 @@
         <v>204</v>
       </c>
       <c r="Z145" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>BLOCKED</v>
       </c>
-    </row>
-    <row r="146" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="AB145">
+        <v>827</v>
+      </c>
+      <c r="AC145">
+        <v>212</v>
+      </c>
+      <c r="AD145">
+        <v>204</v>
+      </c>
+      <c r="AE145" t="str">
+        <f t="shared" si="11"/>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="146" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H146">
         <v>834</v>
       </c>
@@ -8994,7 +10893,7 @@
         <v>235</v>
       </c>
       <c r="S146" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W146">
@@ -9007,11 +10906,24 @@
         <v>204</v>
       </c>
       <c r="Z146" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>BLOCKED</v>
       </c>
-    </row>
-    <row r="147" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="AB146">
+        <v>828</v>
+      </c>
+      <c r="AC146">
+        <v>212</v>
+      </c>
+      <c r="AD146">
+        <v>212</v>
+      </c>
+      <c r="AE146" t="str">
+        <f t="shared" si="11"/>
+        <v>BLOCKED</v>
+      </c>
+    </row>
+    <row r="147" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H147">
         <v>835</v>
       </c>
@@ -9040,7 +10952,7 @@
         <v>235</v>
       </c>
       <c r="S147" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W147">
@@ -9053,11 +10965,24 @@
         <v>212</v>
       </c>
       <c r="Z147" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>BLOCKED</v>
       </c>
-    </row>
-    <row r="148" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="AB147">
+        <v>829</v>
+      </c>
+      <c r="AC147">
+        <v>211</v>
+      </c>
+      <c r="AD147">
+        <v>212</v>
+      </c>
+      <c r="AE147" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="148" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H148">
         <v>858</v>
       </c>
@@ -9086,7 +11011,7 @@
         <v>235</v>
       </c>
       <c r="S148" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W148">
@@ -9099,11 +11024,24 @@
         <v>212</v>
       </c>
       <c r="Z148" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="149" spans="8:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB148">
+        <v>834</v>
+      </c>
+      <c r="AC148">
+        <v>199</v>
+      </c>
+      <c r="AD148">
+        <v>212</v>
+      </c>
+      <c r="AE148" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="149" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H149">
         <v>868</v>
       </c>
@@ -9132,7 +11070,7 @@
         <v>235</v>
       </c>
       <c r="S149" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W149">
@@ -9145,11 +11083,24 @@
         <v>212</v>
       </c>
       <c r="Z149" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="150" spans="8:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB149">
+        <v>835</v>
+      </c>
+      <c r="AC149">
+        <v>195</v>
+      </c>
+      <c r="AD149">
+        <v>212</v>
+      </c>
+      <c r="AE149" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="150" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H150">
         <v>869</v>
       </c>
@@ -9178,7 +11129,7 @@
         <v>235</v>
       </c>
       <c r="S150" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W150">
@@ -9191,11 +11142,24 @@
         <v>212</v>
       </c>
       <c r="Z150" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="151" spans="8:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB150">
+        <v>858</v>
+      </c>
+      <c r="AC150">
+        <v>193</v>
+      </c>
+      <c r="AD150">
+        <v>212</v>
+      </c>
+      <c r="AE150" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="151" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H151">
         <v>869</v>
       </c>
@@ -9224,7 +11188,7 @@
         <v>235</v>
       </c>
       <c r="S151" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W151">
@@ -9237,11 +11201,24 @@
         <v>212</v>
       </c>
       <c r="Z151" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="152" spans="8:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB151">
+        <v>868</v>
+      </c>
+      <c r="AC151">
+        <v>189</v>
+      </c>
+      <c r="AD151">
+        <v>212</v>
+      </c>
+      <c r="AE151" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="152" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H152">
         <v>870</v>
       </c>
@@ -9270,7 +11247,7 @@
         <v>235</v>
       </c>
       <c r="S152" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W152">
@@ -9283,11 +11260,24 @@
         <v>212</v>
       </c>
       <c r="Z152" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="153" spans="8:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB152">
+        <v>869</v>
+      </c>
+      <c r="AC152">
+        <v>187</v>
+      </c>
+      <c r="AD152">
+        <v>227</v>
+      </c>
+      <c r="AE152" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="153" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H153">
         <v>870</v>
       </c>
@@ -9316,7 +11306,7 @@
         <v>235</v>
       </c>
       <c r="S153" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W153">
@@ -9329,11 +11319,24 @@
         <v>227</v>
       </c>
       <c r="Z153" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="154" spans="8:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB153">
+        <v>870</v>
+      </c>
+      <c r="AC153">
+        <v>181</v>
+      </c>
+      <c r="AD153">
+        <v>227</v>
+      </c>
+      <c r="AE153" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="154" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H154">
         <v>871</v>
       </c>
@@ -9362,7 +11365,7 @@
         <v>235</v>
       </c>
       <c r="S154" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W154">
@@ -9375,11 +11378,24 @@
         <v>227</v>
       </c>
       <c r="Z154" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="155" spans="8:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB154">
+        <v>871</v>
+      </c>
+      <c r="AC154">
+        <v>179</v>
+      </c>
+      <c r="AD154">
+        <v>235</v>
+      </c>
+      <c r="AE154" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="155" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H155">
         <v>873</v>
       </c>
@@ -9408,7 +11424,7 @@
         <v>235</v>
       </c>
       <c r="S155" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W155">
@@ -9421,11 +11437,24 @@
         <v>235</v>
       </c>
       <c r="Z155" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="156" spans="8:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB155">
+        <v>873</v>
+      </c>
+      <c r="AC155">
+        <v>177</v>
+      </c>
+      <c r="AD155">
+        <v>235</v>
+      </c>
+      <c r="AE155" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="156" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H156">
         <v>874</v>
       </c>
@@ -9454,7 +11483,7 @@
         <v>235</v>
       </c>
       <c r="S156" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W156">
@@ -9467,11 +11496,24 @@
         <v>235</v>
       </c>
       <c r="Z156" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="157" spans="8:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB156">
+        <v>874</v>
+      </c>
+      <c r="AC156">
+        <v>175</v>
+      </c>
+      <c r="AD156">
+        <v>235</v>
+      </c>
+      <c r="AE156" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="157" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H157">
         <v>875</v>
       </c>
@@ -9500,7 +11542,7 @@
         <v>235</v>
       </c>
       <c r="S157" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W157">
@@ -9513,11 +11555,24 @@
         <v>235</v>
       </c>
       <c r="Z157" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="158" spans="8:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB157">
+        <v>875</v>
+      </c>
+      <c r="AC157">
+        <v>169</v>
+      </c>
+      <c r="AD157">
+        <v>235</v>
+      </c>
+      <c r="AE157" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="158" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H158">
         <v>876</v>
       </c>
@@ -9546,7 +11601,7 @@
         <v>235</v>
       </c>
       <c r="S158" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W158">
@@ -9559,11 +11614,24 @@
         <v>235</v>
       </c>
       <c r="Z158" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="159" spans="8:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB158">
+        <v>876</v>
+      </c>
+      <c r="AC158">
+        <v>167</v>
+      </c>
+      <c r="AD158">
+        <v>235</v>
+      </c>
+      <c r="AE158" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="159" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H159">
         <v>877</v>
       </c>
@@ -9592,7 +11660,7 @@
         <v>235</v>
       </c>
       <c r="S159" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W159">
@@ -9605,11 +11673,24 @@
         <v>235</v>
       </c>
       <c r="Z159" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="160" spans="8:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB159">
+        <v>877</v>
+      </c>
+      <c r="AC159">
+        <v>161</v>
+      </c>
+      <c r="AD159">
+        <v>235</v>
+      </c>
+      <c r="AE159" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="160" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H160">
         <v>878</v>
       </c>
@@ -9638,7 +11719,7 @@
         <v>235</v>
       </c>
       <c r="S160" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W160">
@@ -9651,11 +11732,24 @@
         <v>235</v>
       </c>
       <c r="Z160" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="161" spans="8:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB160">
+        <v>878</v>
+      </c>
+      <c r="AC160">
+        <v>155</v>
+      </c>
+      <c r="AD160">
+        <v>235</v>
+      </c>
+      <c r="AE160" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="161" spans="8:32" x14ac:dyDescent="0.25">
       <c r="H161">
         <v>880</v>
       </c>
@@ -9684,7 +11778,7 @@
         <v>235</v>
       </c>
       <c r="S161" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W161">
@@ -9697,11 +11791,24 @@
         <v>235</v>
       </c>
       <c r="Z161" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="162" spans="8:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB161">
+        <v>879</v>
+      </c>
+      <c r="AC161">
+        <v>147</v>
+      </c>
+      <c r="AD161">
+        <v>235</v>
+      </c>
+      <c r="AE161" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="162" spans="8:32" x14ac:dyDescent="0.25">
       <c r="H162">
         <v>883</v>
       </c>
@@ -9730,7 +11837,7 @@
         <v>235</v>
       </c>
       <c r="S162" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W162">
@@ -9743,11 +11850,24 @@
         <v>235</v>
       </c>
       <c r="Z162" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="163" spans="8:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB162">
+        <v>880</v>
+      </c>
+      <c r="AC162">
+        <v>143</v>
+      </c>
+      <c r="AD162">
+        <v>235</v>
+      </c>
+      <c r="AE162" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="163" spans="8:32" x14ac:dyDescent="0.25">
       <c r="H163">
         <v>884</v>
       </c>
@@ -9776,7 +11896,7 @@
         <v>235</v>
       </c>
       <c r="S163" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W163">
@@ -9789,11 +11909,24 @@
         <v>235</v>
       </c>
       <c r="Z163" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="164" spans="8:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB163">
+        <v>881</v>
+      </c>
+      <c r="AC163">
+        <v>155</v>
+      </c>
+      <c r="AD163">
+        <v>235</v>
+      </c>
+      <c r="AE163" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="164" spans="8:32" x14ac:dyDescent="0.25">
       <c r="H164">
         <v>885</v>
       </c>
@@ -9822,7 +11955,7 @@
         <v>235</v>
       </c>
       <c r="S164" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W164">
@@ -9835,11 +11968,24 @@
         <v>235</v>
       </c>
       <c r="Z164" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="165" spans="8:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB164">
+        <v>883</v>
+      </c>
+      <c r="AC164">
+        <v>149</v>
+      </c>
+      <c r="AD164">
+        <v>235</v>
+      </c>
+      <c r="AE164" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="165" spans="8:32" x14ac:dyDescent="0.25">
       <c r="H165">
         <v>938</v>
       </c>
@@ -9868,7 +12014,7 @@
         <v>235</v>
       </c>
       <c r="S165" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W165">
@@ -9881,11 +12027,24 @@
         <v>235</v>
       </c>
       <c r="Z165" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="166" spans="8:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB165">
+        <v>885</v>
+      </c>
+      <c r="AC165">
+        <v>143</v>
+      </c>
+      <c r="AD165">
+        <v>235</v>
+      </c>
+      <c r="AE165" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="166" spans="8:32" x14ac:dyDescent="0.25">
       <c r="H166">
         <v>953</v>
       </c>
@@ -9918,11 +12077,24 @@
         <v>235</v>
       </c>
       <c r="Z166" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="167" spans="8:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB166">
+        <v>899</v>
+      </c>
+      <c r="AC166">
+        <v>155</v>
+      </c>
+      <c r="AD166">
+        <v>235</v>
+      </c>
+      <c r="AE166" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="167" spans="8:32" x14ac:dyDescent="0.25">
       <c r="H167">
         <v>956</v>
       </c>
@@ -9951,11 +12123,24 @@
         <v>235</v>
       </c>
       <c r="Z167" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="168" spans="8:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB167">
+        <v>938</v>
+      </c>
+      <c r="AC167">
+        <v>159</v>
+      </c>
+      <c r="AD167">
+        <v>235</v>
+      </c>
+      <c r="AE167" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="168" spans="8:32" x14ac:dyDescent="0.25">
       <c r="H168">
         <v>958</v>
       </c>
@@ -9984,11 +12169,24 @@
         <v>235</v>
       </c>
       <c r="Z168" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="169" spans="8:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB168">
+        <v>939</v>
+      </c>
+      <c r="AC168">
+        <v>173</v>
+      </c>
+      <c r="AD168">
+        <v>235</v>
+      </c>
+      <c r="AE168" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="169" spans="8:32" x14ac:dyDescent="0.25">
       <c r="H169">
         <v>959</v>
       </c>
@@ -10017,11 +12215,24 @@
         <v>235</v>
       </c>
       <c r="Z169" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="170" spans="8:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB169">
+        <v>956</v>
+      </c>
+      <c r="AC169">
+        <v>171</v>
+      </c>
+      <c r="AD169">
+        <v>235</v>
+      </c>
+      <c r="AE169" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="170" spans="8:32" x14ac:dyDescent="0.25">
       <c r="H170">
         <v>960</v>
       </c>
@@ -10050,11 +12261,24 @@
         <v>235</v>
       </c>
       <c r="Z170" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="171" spans="8:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB170">
+        <v>959</v>
+      </c>
+      <c r="AC170">
+        <v>163</v>
+      </c>
+      <c r="AD170">
+        <v>235</v>
+      </c>
+      <c r="AE170" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="171" spans="8:32" x14ac:dyDescent="0.25">
       <c r="H171">
         <v>961</v>
       </c>
@@ -10083,11 +12307,24 @@
         <v>235</v>
       </c>
       <c r="Z171" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="172" spans="8:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB171">
+        <v>960</v>
+      </c>
+      <c r="AC171">
+        <v>161</v>
+      </c>
+      <c r="AD171">
+        <v>235</v>
+      </c>
+      <c r="AE171" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="172" spans="8:32" x14ac:dyDescent="0.25">
       <c r="H172">
         <v>963</v>
       </c>
@@ -10116,11 +12353,24 @@
         <v>235</v>
       </c>
       <c r="Z172" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="173" spans="8:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB172">
+        <v>961</v>
+      </c>
+      <c r="AC172">
+        <v>153</v>
+      </c>
+      <c r="AD172">
+        <v>235</v>
+      </c>
+      <c r="AE172" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="173" spans="8:32" x14ac:dyDescent="0.25">
       <c r="W173">
         <v>961</v>
       </c>
@@ -10131,11 +12381,24 @@
         <v>235</v>
       </c>
       <c r="Z173" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="174" spans="8:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB173">
+        <v>962</v>
+      </c>
+      <c r="AC173">
+        <v>151</v>
+      </c>
+      <c r="AD173">
+        <v>235</v>
+      </c>
+      <c r="AE173" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="174" spans="8:32" x14ac:dyDescent="0.25">
       <c r="W174">
         <v>962</v>
       </c>
@@ -10146,11 +12409,24 @@
         <v>235</v>
       </c>
       <c r="Z174" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="175" spans="8:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AB174">
+        <v>963</v>
+      </c>
+      <c r="AC174">
+        <v>147</v>
+      </c>
+      <c r="AD174">
+        <v>235</v>
+      </c>
+      <c r="AE174" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="175" spans="8:32" x14ac:dyDescent="0.25">
       <c r="W175">
         <v>963</v>
       </c>
@@ -10161,11 +12437,15 @@
         <v>235</v>
       </c>
       <c r="Z175" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="176" spans="8:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="AF175">
+        <f>SUM(AF3:AF174)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="176" spans="8:32" x14ac:dyDescent="0.25">
       <c r="AA176">
         <f>SUM(AA3:AA175)</f>
         <v>64</v>
